--- a/== MATERIAL/(FyQ) - Estandares de aprendizaje.xlsx
+++ b/== MATERIAL/(FyQ) - Estandares de aprendizaje.xlsx
@@ -1572,6 +1572,78 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1598,78 +1670,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1962,8 +1962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.109375" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1982,22 +1982,22 @@
       <c r="D1" s="6"/>
     </row>
     <row r="2" spans="2:5" s="4" customFormat="1" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="74" t="s">
         <v>282</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="52"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="76"/>
     </row>
     <row r="3" spans="2:5" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="78" t="s">
         <v>286</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="56" t="s">
+      <c r="C3" s="79"/>
+      <c r="D3" s="80" t="s">
         <v>287</v>
       </c>
-      <c r="E3" s="57"/>
+      <c r="E3" s="81"/>
     </row>
     <row r="4" spans="2:5" s="9" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="34" t="s">
@@ -2014,10 +2014,10 @@
       </c>
     </row>
     <row r="5" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="C5" s="77" t="s">
+      <c r="C5" s="52" t="s">
         <v>235</v>
       </c>
       <c r="D5" s="18" t="s">
@@ -2028,8 +2028,8 @@
       </c>
     </row>
     <row r="6" spans="2:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="76"/>
-      <c r="C6" s="78"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="53"/>
       <c r="D6" s="19" t="s">
         <v>96</v>
       </c>
@@ -2066,10 +2066,10 @@
       </c>
     </row>
     <row r="9" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="79" t="s">
+      <c r="B9" s="54" t="s">
         <v>191</v>
       </c>
-      <c r="C9" s="81" t="s">
+      <c r="C9" s="56" t="s">
         <v>238</v>
       </c>
       <c r="D9" s="30" t="s">
@@ -2080,8 +2080,8 @@
       </c>
     </row>
     <row r="10" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="80"/>
-      <c r="C10" s="82"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="57"/>
       <c r="D10" s="32" t="s">
         <v>100</v>
       </c>
@@ -2090,10 +2090,10 @@
       </c>
     </row>
     <row r="11" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="58" t="s">
         <v>192</v>
       </c>
-      <c r="C11" s="66" t="s">
+      <c r="C11" s="60" t="s">
         <v>239</v>
       </c>
       <c r="D11" s="30" t="s">
@@ -2104,8 +2104,8 @@
       </c>
     </row>
     <row r="12" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="63"/>
-      <c r="C12" s="65"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="61"/>
       <c r="D12" s="32" t="s">
         <v>102</v>
       </c>
@@ -2114,10 +2114,10 @@
       </c>
     </row>
     <row r="13" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="67" t="s">
+      <c r="B13" s="62" t="s">
         <v>193</v>
       </c>
-      <c r="C13" s="69" t="s">
+      <c r="C13" s="64" t="s">
         <v>240</v>
       </c>
       <c r="D13" s="20" t="s">
@@ -2128,8 +2128,8 @@
       </c>
     </row>
     <row r="14" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="68"/>
-      <c r="C14" s="70"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="65"/>
       <c r="D14" s="19" t="s">
         <v>104</v>
       </c>
@@ -2138,22 +2138,22 @@
       </c>
     </row>
     <row r="15" spans="2:5" s="4" customFormat="1" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="74" t="s">
         <v>288</v>
       </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="52"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="76"/>
     </row>
     <row r="16" spans="2:5" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="54" t="s">
+      <c r="B16" s="78" t="s">
         <v>286</v>
       </c>
-      <c r="C16" s="55"/>
-      <c r="D16" s="58" t="s">
+      <c r="C16" s="79"/>
+      <c r="D16" s="82" t="s">
         <v>287</v>
       </c>
-      <c r="E16" s="57"/>
+      <c r="E16" s="81"/>
     </row>
     <row r="17" spans="2:5" s="9" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="34" t="s">
@@ -2170,10 +2170,10 @@
       </c>
     </row>
     <row r="18" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="71" t="s">
+      <c r="B18" s="66" t="s">
         <v>194</v>
       </c>
-      <c r="C18" s="73" t="s">
+      <c r="C18" s="68" t="s">
         <v>241</v>
       </c>
       <c r="D18" s="41" t="s">
@@ -2184,8 +2184,8 @@
       </c>
     </row>
     <row r="19" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="72"/>
-      <c r="C19" s="74"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="69"/>
       <c r="D19" s="38" t="s">
         <v>106</v>
       </c>
@@ -2194,8 +2194,8 @@
       </c>
     </row>
     <row r="20" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="64"/>
-      <c r="C20" s="66"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="60"/>
       <c r="D20" s="42" t="s">
         <v>107</v>
       </c>
@@ -2204,10 +2204,10 @@
       </c>
     </row>
     <row r="21" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="61" t="s">
+      <c r="B21" s="70" t="s">
         <v>195</v>
       </c>
-      <c r="C21" s="62" t="s">
+      <c r="C21" s="71" t="s">
         <v>242</v>
       </c>
       <c r="D21" s="48" t="s">
@@ -2218,8 +2218,8 @@
       </c>
     </row>
     <row r="22" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="61"/>
-      <c r="C22" s="62"/>
+      <c r="B22" s="70"/>
+      <c r="C22" s="71"/>
       <c r="D22" s="42" t="s">
         <v>109</v>
       </c>
@@ -2228,8 +2228,8 @@
       </c>
     </row>
     <row r="23" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="61"/>
-      <c r="C23" s="62"/>
+      <c r="B23" s="70"/>
+      <c r="C23" s="71"/>
       <c r="D23" s="38" t="s">
         <v>110</v>
       </c>
@@ -2238,8 +2238,8 @@
       </c>
     </row>
     <row r="24" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="61"/>
-      <c r="C24" s="62"/>
+      <c r="B24" s="70"/>
+      <c r="C24" s="71"/>
       <c r="D24" s="43" t="s">
         <v>111</v>
       </c>
@@ -2248,10 +2248,10 @@
       </c>
     </row>
     <row r="25" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="63" t="s">
+      <c r="B25" s="59" t="s">
         <v>196</v>
       </c>
-      <c r="C25" s="65" t="s">
+      <c r="C25" s="61" t="s">
         <v>243</v>
       </c>
       <c r="D25" s="38" t="s">
@@ -2262,8 +2262,8 @@
       </c>
     </row>
     <row r="26" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="64"/>
-      <c r="C26" s="66"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="60"/>
       <c r="D26" s="42" t="s">
         <v>113</v>
       </c>
@@ -2272,10 +2272,10 @@
       </c>
     </row>
     <row r="27" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="61" t="s">
+      <c r="B27" s="70" t="s">
         <v>197</v>
       </c>
-      <c r="C27" s="62" t="s">
+      <c r="C27" s="71" t="s">
         <v>244</v>
       </c>
       <c r="D27" s="48" t="s">
@@ -2286,8 +2286,8 @@
       </c>
     </row>
     <row r="28" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="61"/>
-      <c r="C28" s="62"/>
+      <c r="B28" s="70"/>
+      <c r="C28" s="71"/>
       <c r="D28" s="42" t="s">
         <v>115</v>
       </c>
@@ -2296,8 +2296,8 @@
       </c>
     </row>
     <row r="29" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="61"/>
-      <c r="C29" s="62"/>
+      <c r="B29" s="70"/>
+      <c r="C29" s="71"/>
       <c r="D29" s="45" t="s">
         <v>116</v>
       </c>
@@ -2320,10 +2320,10 @@
       </c>
     </row>
     <row r="31" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="61" t="s">
+      <c r="B31" s="70" t="s">
         <v>199</v>
       </c>
-      <c r="C31" s="62" t="s">
+      <c r="C31" s="71" t="s">
         <v>246</v>
       </c>
       <c r="D31" s="48" t="s">
@@ -2334,8 +2334,8 @@
       </c>
     </row>
     <row r="32" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="61"/>
-      <c r="C32" s="62"/>
+      <c r="B32" s="70"/>
+      <c r="C32" s="71"/>
       <c r="D32" s="42" t="s">
         <v>119</v>
       </c>
@@ -2344,8 +2344,8 @@
       </c>
     </row>
     <row r="33" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="61"/>
-      <c r="C33" s="62"/>
+      <c r="B33" s="70"/>
+      <c r="C33" s="71"/>
       <c r="D33" s="45" t="s">
         <v>120</v>
       </c>
@@ -2368,10 +2368,10 @@
       </c>
     </row>
     <row r="35" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="61" t="s">
+      <c r="B35" s="70" t="s">
         <v>201</v>
       </c>
-      <c r="C35" s="62" t="s">
+      <c r="C35" s="71" t="s">
         <v>248</v>
       </c>
       <c r="D35" s="48" t="s">
@@ -2382,8 +2382,8 @@
       </c>
     </row>
     <row r="36" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="61"/>
-      <c r="C36" s="62"/>
+      <c r="B36" s="70"/>
+      <c r="C36" s="71"/>
       <c r="D36" s="43" t="s">
         <v>123</v>
       </c>
@@ -2392,10 +2392,10 @@
       </c>
     </row>
     <row r="37" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="63" t="s">
+      <c r="B37" s="59" t="s">
         <v>202</v>
       </c>
-      <c r="C37" s="65" t="s">
+      <c r="C37" s="61" t="s">
         <v>249</v>
       </c>
       <c r="D37" s="38" t="s">
@@ -2406,8 +2406,8 @@
       </c>
     </row>
     <row r="38" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="64"/>
-      <c r="C38" s="66"/>
+      <c r="B38" s="58"/>
+      <c r="C38" s="60"/>
       <c r="D38" s="42" t="s">
         <v>125</v>
       </c>
@@ -2416,10 +2416,10 @@
       </c>
     </row>
     <row r="39" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="61" t="s">
+      <c r="B39" s="70" t="s">
         <v>203</v>
       </c>
-      <c r="C39" s="62" t="s">
+      <c r="C39" s="71" t="s">
         <v>250</v>
       </c>
       <c r="D39" s="48" t="s">
@@ -2430,8 +2430,8 @@
       </c>
     </row>
     <row r="40" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="61"/>
-      <c r="C40" s="62"/>
+      <c r="B40" s="70"/>
+      <c r="C40" s="71"/>
       <c r="D40" s="43" t="s">
         <v>127</v>
       </c>
@@ -2454,18 +2454,18 @@
       </c>
     </row>
     <row r="42" spans="2:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="53" t="s">
+      <c r="B42" s="77" t="s">
         <v>283</v>
       </c>
-      <c r="C42" s="53"/>
-      <c r="D42" s="53"/>
-      <c r="E42" s="53"/>
+      <c r="C42" s="77"/>
+      <c r="D42" s="77"/>
+      <c r="E42" s="77"/>
     </row>
     <row r="43" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="59" t="s">
+      <c r="B43" s="73" t="s">
         <v>205</v>
       </c>
-      <c r="C43" s="60" t="s">
+      <c r="C43" s="72" t="s">
         <v>252</v>
       </c>
       <c r="D43" s="5" t="s">
@@ -2476,8 +2476,8 @@
       </c>
     </row>
     <row r="44" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="59"/>
-      <c r="C44" s="60"/>
+      <c r="B44" s="73"/>
+      <c r="C44" s="72"/>
       <c r="D44" s="5" t="s">
         <v>130</v>
       </c>
@@ -2528,10 +2528,10 @@
       </c>
     </row>
     <row r="48" spans="2:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="59" t="s">
+      <c r="B48" s="73" t="s">
         <v>209</v>
       </c>
-      <c r="C48" s="60" t="s">
+      <c r="C48" s="72" t="s">
         <v>256</v>
       </c>
       <c r="D48" s="5" t="s">
@@ -2542,8 +2542,8 @@
       </c>
     </row>
     <row r="49" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="59"/>
-      <c r="C49" s="60"/>
+      <c r="B49" s="73"/>
+      <c r="C49" s="72"/>
       <c r="D49" s="5" t="s">
         <v>135</v>
       </c>
@@ -2552,10 +2552,10 @@
       </c>
     </row>
     <row r="50" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="59" t="s">
+      <c r="B50" s="73" t="s">
         <v>210</v>
       </c>
-      <c r="C50" s="60" t="s">
+      <c r="C50" s="72" t="s">
         <v>257</v>
       </c>
       <c r="D50" s="5" t="s">
@@ -2566,8 +2566,8 @@
       </c>
     </row>
     <row r="51" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="59"/>
-      <c r="C51" s="60"/>
+      <c r="B51" s="73"/>
+      <c r="C51" s="72"/>
       <c r="D51" s="5" t="s">
         <v>137</v>
       </c>
@@ -2576,10 +2576,10 @@
       </c>
     </row>
     <row r="52" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="59" t="s">
+      <c r="B52" s="73" t="s">
         <v>211</v>
       </c>
-      <c r="C52" s="60" t="s">
+      <c r="C52" s="72" t="s">
         <v>258</v>
       </c>
       <c r="D52" s="5" t="s">
@@ -2590,8 +2590,8 @@
       </c>
     </row>
     <row r="53" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="59"/>
-      <c r="C53" s="60"/>
+      <c r="B53" s="73"/>
+      <c r="C53" s="72"/>
       <c r="D53" s="5" t="s">
         <v>139</v>
       </c>
@@ -2600,8 +2600,8 @@
       </c>
     </row>
     <row r="54" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="59"/>
-      <c r="C54" s="60"/>
+      <c r="B54" s="73"/>
+      <c r="C54" s="72"/>
       <c r="D54" s="5" t="s">
         <v>140</v>
       </c>
@@ -2610,18 +2610,18 @@
       </c>
     </row>
     <row r="55" spans="2:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="53" t="s">
+      <c r="B55" s="77" t="s">
         <v>284</v>
       </c>
-      <c r="C55" s="53"/>
-      <c r="D55" s="53"/>
-      <c r="E55" s="53"/>
+      <c r="C55" s="77"/>
+      <c r="D55" s="77"/>
+      <c r="E55" s="77"/>
     </row>
     <row r="56" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="59" t="s">
+      <c r="B56" s="73" t="s">
         <v>212</v>
       </c>
-      <c r="C56" s="60" t="s">
+      <c r="C56" s="72" t="s">
         <v>259</v>
       </c>
       <c r="D56" s="5" t="s">
@@ -2632,8 +2632,8 @@
       </c>
     </row>
     <row r="57" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="59"/>
-      <c r="C57" s="60"/>
+      <c r="B57" s="73"/>
+      <c r="C57" s="72"/>
       <c r="D57" s="5" t="s">
         <v>142</v>
       </c>
@@ -2642,8 +2642,8 @@
       </c>
     </row>
     <row r="58" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="59"/>
-      <c r="C58" s="60"/>
+      <c r="B58" s="73"/>
+      <c r="C58" s="72"/>
       <c r="D58" s="5" t="s">
         <v>143</v>
       </c>
@@ -2652,8 +2652,8 @@
       </c>
     </row>
     <row r="59" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="59"/>
-      <c r="C59" s="60"/>
+      <c r="B59" s="73"/>
+      <c r="C59" s="72"/>
       <c r="D59" s="5" t="s">
         <v>144</v>
       </c>
@@ -2662,10 +2662,10 @@
       </c>
     </row>
     <row r="60" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="59" t="s">
+      <c r="B60" s="73" t="s">
         <v>213</v>
       </c>
-      <c r="C60" s="60" t="s">
+      <c r="C60" s="72" t="s">
         <v>260</v>
       </c>
       <c r="D60" s="5" t="s">
@@ -2676,8 +2676,8 @@
       </c>
     </row>
     <row r="61" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="59"/>
-      <c r="C61" s="60"/>
+      <c r="B61" s="73"/>
+      <c r="C61" s="72"/>
       <c r="D61" s="5" t="s">
         <v>146</v>
       </c>
@@ -2686,10 +2686,10 @@
       </c>
     </row>
     <row r="62" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="59" t="s">
+      <c r="B62" s="73" t="s">
         <v>214</v>
       </c>
-      <c r="C62" s="60" t="s">
+      <c r="C62" s="72" t="s">
         <v>261</v>
       </c>
       <c r="D62" s="5" t="s">
@@ -2700,8 +2700,8 @@
       </c>
     </row>
     <row r="63" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="59"/>
-      <c r="C63" s="60"/>
+      <c r="B63" s="73"/>
+      <c r="C63" s="72"/>
       <c r="D63" s="5" t="s">
         <v>148</v>
       </c>
@@ -2738,10 +2738,10 @@
       </c>
     </row>
     <row r="66" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="59" t="s">
+      <c r="B66" s="73" t="s">
         <v>217</v>
       </c>
-      <c r="C66" s="60" t="s">
+      <c r="C66" s="72" t="s">
         <v>264</v>
       </c>
       <c r="D66" s="5" t="s">
@@ -2752,8 +2752,8 @@
       </c>
     </row>
     <row r="67" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="59"/>
-      <c r="C67" s="60"/>
+      <c r="B67" s="73"/>
+      <c r="C67" s="72"/>
       <c r="D67" s="5" t="s">
         <v>152</v>
       </c>
@@ -2762,8 +2762,8 @@
       </c>
     </row>
     <row r="68" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="59"/>
-      <c r="C68" s="60"/>
+      <c r="B68" s="73"/>
+      <c r="C68" s="72"/>
       <c r="D68" s="5" t="s">
         <v>153</v>
       </c>
@@ -2786,10 +2786,10 @@
       </c>
     </row>
     <row r="70" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="59" t="s">
+      <c r="B70" s="73" t="s">
         <v>219</v>
       </c>
-      <c r="C70" s="60" t="s">
+      <c r="C70" s="72" t="s">
         <v>266</v>
       </c>
       <c r="D70" s="5" t="s">
@@ -2800,8 +2800,8 @@
       </c>
     </row>
     <row r="71" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="59"/>
-      <c r="C71" s="60"/>
+      <c r="B71" s="73"/>
+      <c r="C71" s="72"/>
       <c r="D71" s="5" t="s">
         <v>156</v>
       </c>
@@ -2824,10 +2824,10 @@
       </c>
     </row>
     <row r="73" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="59" t="s">
+      <c r="B73" s="73" t="s">
         <v>221</v>
       </c>
-      <c r="C73" s="60" t="s">
+      <c r="C73" s="72" t="s">
         <v>268</v>
       </c>
       <c r="D73" s="5" t="s">
@@ -2838,8 +2838,8 @@
       </c>
     </row>
     <row r="74" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="59"/>
-      <c r="C74" s="60"/>
+      <c r="B74" s="73"/>
+      <c r="C74" s="72"/>
       <c r="D74" s="5" t="s">
         <v>159</v>
       </c>
@@ -2848,10 +2848,10 @@
       </c>
     </row>
     <row r="75" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="59" t="s">
+      <c r="B75" s="73" t="s">
         <v>222</v>
       </c>
-      <c r="C75" s="60" t="s">
+      <c r="C75" s="72" t="s">
         <v>269</v>
       </c>
       <c r="D75" s="5" t="s">
@@ -2862,8 +2862,8 @@
       </c>
     </row>
     <row r="76" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="59"/>
-      <c r="C76" s="60"/>
+      <c r="B76" s="73"/>
+      <c r="C76" s="72"/>
       <c r="D76" s="5" t="s">
         <v>161</v>
       </c>
@@ -2886,18 +2886,18 @@
       </c>
     </row>
     <row r="78" spans="2:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="53" t="s">
+      <c r="B78" s="77" t="s">
         <v>285</v>
       </c>
-      <c r="C78" s="53"/>
-      <c r="D78" s="53"/>
-      <c r="E78" s="53"/>
+      <c r="C78" s="77"/>
+      <c r="D78" s="77"/>
+      <c r="E78" s="77"/>
     </row>
     <row r="79" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="59" t="s">
+      <c r="B79" s="73" t="s">
         <v>224</v>
       </c>
-      <c r="C79" s="60" t="s">
+      <c r="C79" s="72" t="s">
         <v>271</v>
       </c>
       <c r="D79" s="5" t="s">
@@ -2908,8 +2908,8 @@
       </c>
     </row>
     <row r="80" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="59"/>
-      <c r="C80" s="60"/>
+      <c r="B80" s="73"/>
+      <c r="C80" s="72"/>
       <c r="D80" s="5" t="s">
         <v>164</v>
       </c>
@@ -2932,10 +2932,10 @@
       </c>
     </row>
     <row r="82" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="59" t="s">
+      <c r="B82" s="73" t="s">
         <v>226</v>
       </c>
-      <c r="C82" s="60" t="s">
+      <c r="C82" s="72" t="s">
         <v>273</v>
       </c>
       <c r="D82" s="5" t="s">
@@ -2946,8 +2946,8 @@
       </c>
     </row>
     <row r="83" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="59"/>
-      <c r="C83" s="60"/>
+      <c r="B83" s="73"/>
+      <c r="C83" s="72"/>
       <c r="D83" s="5" t="s">
         <v>167</v>
       </c>
@@ -2956,8 +2956,8 @@
       </c>
     </row>
     <row r="84" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="59"/>
-      <c r="C84" s="60"/>
+      <c r="B84" s="73"/>
+      <c r="C84" s="72"/>
       <c r="D84" s="5" t="s">
         <v>168</v>
       </c>
@@ -2966,10 +2966,10 @@
       </c>
     </row>
     <row r="85" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="59" t="s">
+      <c r="B85" s="73" t="s">
         <v>227</v>
       </c>
-      <c r="C85" s="60" t="s">
+      <c r="C85" s="72" t="s">
         <v>274</v>
       </c>
       <c r="D85" s="5" t="s">
@@ -2980,8 +2980,8 @@
       </c>
     </row>
     <row r="86" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="59"/>
-      <c r="C86" s="60"/>
+      <c r="B86" s="73"/>
+      <c r="C86" s="72"/>
       <c r="D86" s="5" t="s">
         <v>170</v>
       </c>
@@ -2990,8 +2990,8 @@
       </c>
     </row>
     <row r="87" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="59"/>
-      <c r="C87" s="60"/>
+      <c r="B87" s="73"/>
+      <c r="C87" s="72"/>
       <c r="D87" s="5" t="s">
         <v>171</v>
       </c>
@@ -3014,10 +3014,10 @@
       </c>
     </row>
     <row r="89" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="59" t="s">
+      <c r="B89" s="73" t="s">
         <v>229</v>
       </c>
-      <c r="C89" s="60" t="s">
+      <c r="C89" s="72" t="s">
         <v>276</v>
       </c>
       <c r="D89" s="5" t="s">
@@ -3028,8 +3028,8 @@
       </c>
     </row>
     <row r="90" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="59"/>
-      <c r="C90" s="60"/>
+      <c r="B90" s="73"/>
+      <c r="C90" s="72"/>
       <c r="D90" s="5" t="s">
         <v>174</v>
       </c>
@@ -3052,10 +3052,10 @@
       </c>
     </row>
     <row r="92" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="59" t="s">
+      <c r="B92" s="73" t="s">
         <v>231</v>
       </c>
-      <c r="C92" s="60" t="s">
+      <c r="C92" s="72" t="s">
         <v>278</v>
       </c>
       <c r="D92" s="5" t="s">
@@ -3066,8 +3066,8 @@
       </c>
     </row>
     <row r="93" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="59"/>
-      <c r="C93" s="60"/>
+      <c r="B93" s="73"/>
+      <c r="C93" s="72"/>
       <c r="D93" s="5" t="s">
         <v>177</v>
       </c>
@@ -3076,8 +3076,8 @@
       </c>
     </row>
     <row r="94" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="59"/>
-      <c r="C94" s="60"/>
+      <c r="B94" s="73"/>
+      <c r="C94" s="72"/>
       <c r="D94" s="5" t="s">
         <v>178</v>
       </c>
@@ -3086,10 +3086,10 @@
       </c>
     </row>
     <row r="95" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="59" t="s">
+      <c r="B95" s="73" t="s">
         <v>232</v>
       </c>
-      <c r="C95" s="60" t="s">
+      <c r="C95" s="72" t="s">
         <v>279</v>
       </c>
       <c r="D95" s="5" t="s">
@@ -3100,8 +3100,8 @@
       </c>
     </row>
     <row r="96" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="59"/>
-      <c r="C96" s="60"/>
+      <c r="B96" s="73"/>
+      <c r="C96" s="72"/>
       <c r="D96" s="5" t="s">
         <v>180</v>
       </c>
@@ -3110,8 +3110,8 @@
       </c>
     </row>
     <row r="97" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="59"/>
-      <c r="C97" s="60"/>
+      <c r="B97" s="73"/>
+      <c r="C97" s="72"/>
       <c r="D97" s="5" t="s">
         <v>181</v>
       </c>
@@ -3120,8 +3120,8 @@
       </c>
     </row>
     <row r="98" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="59"/>
-      <c r="C98" s="60"/>
+      <c r="B98" s="73"/>
+      <c r="C98" s="72"/>
       <c r="D98" s="5" t="s">
         <v>182</v>
       </c>
@@ -3130,10 +3130,10 @@
       </c>
     </row>
     <row r="99" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="59" t="s">
+      <c r="B99" s="73" t="s">
         <v>233</v>
       </c>
-      <c r="C99" s="60" t="s">
+      <c r="C99" s="72" t="s">
         <v>280</v>
       </c>
       <c r="D99" s="5" t="s">
@@ -3144,8 +3144,8 @@
       </c>
     </row>
     <row r="100" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="59"/>
-      <c r="C100" s="60"/>
+      <c r="B100" s="73"/>
+      <c r="C100" s="72"/>
       <c r="D100" s="5" t="s">
         <v>184</v>
       </c>
@@ -3154,8 +3154,8 @@
       </c>
     </row>
     <row r="101" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="59"/>
-      <c r="C101" s="60"/>
+      <c r="B101" s="73"/>
+      <c r="C101" s="72"/>
       <c r="D101" s="5" t="s">
         <v>185</v>
       </c>
@@ -3164,8 +3164,8 @@
       </c>
     </row>
     <row r="102" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="59"/>
-      <c r="C102" s="60"/>
+      <c r="B102" s="73"/>
+      <c r="C102" s="72"/>
       <c r="D102" s="5" t="s">
         <v>186</v>
       </c>
@@ -3189,59 +3189,6 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="B66:B68"/>
-    <mergeCell ref="C66:C68"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="B82:B84"/>
-    <mergeCell ref="C82:C84"/>
-    <mergeCell ref="B85:B87"/>
-    <mergeCell ref="C85:C87"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="C92:C94"/>
-    <mergeCell ref="B95:B98"/>
-    <mergeCell ref="C95:C98"/>
-    <mergeCell ref="B99:B102"/>
-    <mergeCell ref="C99:C102"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B42:E42"/>
     <mergeCell ref="B55:E55"/>
@@ -3258,6 +3205,59 @@
     <mergeCell ref="B52:B54"/>
     <mergeCell ref="C52:C54"/>
     <mergeCell ref="B56:B59"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="C92:C94"/>
+    <mergeCell ref="B95:B98"/>
+    <mergeCell ref="C95:C98"/>
+    <mergeCell ref="B99:B102"/>
+    <mergeCell ref="C99:C102"/>
+    <mergeCell ref="B82:B84"/>
+    <mergeCell ref="C82:C84"/>
+    <mergeCell ref="B85:B87"/>
+    <mergeCell ref="C85:C87"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="C66:C68"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>

--- a/== MATERIAL/(FyQ) - Estandares de aprendizaje.xlsx
+++ b/== MATERIAL/(FyQ) - Estandares de aprendizaje.xlsx
@@ -1572,6 +1572,81 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1595,81 +1670,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1962,8 +1962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.109375" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1982,22 +1982,22 @@
       <c r="D1" s="6"/>
     </row>
     <row r="2" spans="2:5" s="4" customFormat="1" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="50" t="s">
         <v>282</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="76"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="52"/>
     </row>
     <row r="3" spans="2:5" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="54" t="s">
         <v>286</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="80" t="s">
+      <c r="C3" s="55"/>
+      <c r="D3" s="56" t="s">
         <v>287</v>
       </c>
-      <c r="E3" s="81"/>
+      <c r="E3" s="57"/>
     </row>
     <row r="4" spans="2:5" s="9" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="34" t="s">
@@ -2014,10 +2014,10 @@
       </c>
     </row>
     <row r="5" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="75" t="s">
         <v>188</v>
       </c>
-      <c r="C5" s="52" t="s">
+      <c r="C5" s="77" t="s">
         <v>235</v>
       </c>
       <c r="D5" s="18" t="s">
@@ -2028,8 +2028,8 @@
       </c>
     </row>
     <row r="6" spans="2:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="51"/>
-      <c r="C6" s="53"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="78"/>
       <c r="D6" s="19" t="s">
         <v>96</v>
       </c>
@@ -2066,10 +2066,10 @@
       </c>
     </row>
     <row r="9" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="79" t="s">
         <v>191</v>
       </c>
-      <c r="C9" s="56" t="s">
+      <c r="C9" s="81" t="s">
         <v>238</v>
       </c>
       <c r="D9" s="30" t="s">
@@ -2080,8 +2080,8 @@
       </c>
     </row>
     <row r="10" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="55"/>
-      <c r="C10" s="57"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="82"/>
       <c r="D10" s="32" t="s">
         <v>100</v>
       </c>
@@ -2090,10 +2090,10 @@
       </c>
     </row>
     <row r="11" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="64" t="s">
         <v>192</v>
       </c>
-      <c r="C11" s="60" t="s">
+      <c r="C11" s="66" t="s">
         <v>239</v>
       </c>
       <c r="D11" s="30" t="s">
@@ -2104,8 +2104,8 @@
       </c>
     </row>
     <row r="12" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="59"/>
-      <c r="C12" s="61"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="65"/>
       <c r="D12" s="32" t="s">
         <v>102</v>
       </c>
@@ -2114,10 +2114,10 @@
       </c>
     </row>
     <row r="13" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="62" t="s">
+      <c r="B13" s="67" t="s">
         <v>193</v>
       </c>
-      <c r="C13" s="64" t="s">
+      <c r="C13" s="69" t="s">
         <v>240</v>
       </c>
       <c r="D13" s="20" t="s">
@@ -2128,8 +2128,8 @@
       </c>
     </row>
     <row r="14" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="63"/>
-      <c r="C14" s="65"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="70"/>
       <c r="D14" s="19" t="s">
         <v>104</v>
       </c>
@@ -2138,22 +2138,22 @@
       </c>
     </row>
     <row r="15" spans="2:5" s="4" customFormat="1" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="74" t="s">
+      <c r="B15" s="50" t="s">
         <v>288</v>
       </c>
-      <c r="C15" s="75"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="76"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="52"/>
     </row>
     <row r="16" spans="2:5" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="78" t="s">
+      <c r="B16" s="54" t="s">
         <v>286</v>
       </c>
-      <c r="C16" s="79"/>
-      <c r="D16" s="82" t="s">
+      <c r="C16" s="55"/>
+      <c r="D16" s="58" t="s">
         <v>287</v>
       </c>
-      <c r="E16" s="81"/>
+      <c r="E16" s="57"/>
     </row>
     <row r="17" spans="2:5" s="9" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="34" t="s">
@@ -2170,10 +2170,10 @@
       </c>
     </row>
     <row r="18" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="66" t="s">
+      <c r="B18" s="71" t="s">
         <v>194</v>
       </c>
-      <c r="C18" s="68" t="s">
+      <c r="C18" s="73" t="s">
         <v>241</v>
       </c>
       <c r="D18" s="41" t="s">
@@ -2184,8 +2184,8 @@
       </c>
     </row>
     <row r="19" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="67"/>
-      <c r="C19" s="69"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="74"/>
       <c r="D19" s="38" t="s">
         <v>106</v>
       </c>
@@ -2194,8 +2194,8 @@
       </c>
     </row>
     <row r="20" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="58"/>
-      <c r="C20" s="60"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="66"/>
       <c r="D20" s="42" t="s">
         <v>107</v>
       </c>
@@ -2204,10 +2204,10 @@
       </c>
     </row>
     <row r="21" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="70" t="s">
+      <c r="B21" s="61" t="s">
         <v>195</v>
       </c>
-      <c r="C21" s="71" t="s">
+      <c r="C21" s="62" t="s">
         <v>242</v>
       </c>
       <c r="D21" s="48" t="s">
@@ -2218,8 +2218,8 @@
       </c>
     </row>
     <row r="22" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="70"/>
-      <c r="C22" s="71"/>
+      <c r="B22" s="61"/>
+      <c r="C22" s="62"/>
       <c r="D22" s="42" t="s">
         <v>109</v>
       </c>
@@ -2228,8 +2228,8 @@
       </c>
     </row>
     <row r="23" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="70"/>
-      <c r="C23" s="71"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="62"/>
       <c r="D23" s="38" t="s">
         <v>110</v>
       </c>
@@ -2238,8 +2238,8 @@
       </c>
     </row>
     <row r="24" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="70"/>
-      <c r="C24" s="71"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="62"/>
       <c r="D24" s="43" t="s">
         <v>111</v>
       </c>
@@ -2248,10 +2248,10 @@
       </c>
     </row>
     <row r="25" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="59" t="s">
+      <c r="B25" s="63" t="s">
         <v>196</v>
       </c>
-      <c r="C25" s="61" t="s">
+      <c r="C25" s="65" t="s">
         <v>243</v>
       </c>
       <c r="D25" s="38" t="s">
@@ -2262,8 +2262,8 @@
       </c>
     </row>
     <row r="26" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="58"/>
-      <c r="C26" s="60"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="66"/>
       <c r="D26" s="42" t="s">
         <v>113</v>
       </c>
@@ -2272,10 +2272,10 @@
       </c>
     </row>
     <row r="27" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="70" t="s">
+      <c r="B27" s="61" t="s">
         <v>197</v>
       </c>
-      <c r="C27" s="71" t="s">
+      <c r="C27" s="62" t="s">
         <v>244</v>
       </c>
       <c r="D27" s="48" t="s">
@@ -2286,8 +2286,8 @@
       </c>
     </row>
     <row r="28" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="70"/>
-      <c r="C28" s="71"/>
+      <c r="B28" s="61"/>
+      <c r="C28" s="62"/>
       <c r="D28" s="42" t="s">
         <v>115</v>
       </c>
@@ -2296,8 +2296,8 @@
       </c>
     </row>
     <row r="29" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="70"/>
-      <c r="C29" s="71"/>
+      <c r="B29" s="61"/>
+      <c r="C29" s="62"/>
       <c r="D29" s="45" t="s">
         <v>116</v>
       </c>
@@ -2320,10 +2320,10 @@
       </c>
     </row>
     <row r="31" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="70" t="s">
+      <c r="B31" s="61" t="s">
         <v>199</v>
       </c>
-      <c r="C31" s="71" t="s">
+      <c r="C31" s="62" t="s">
         <v>246</v>
       </c>
       <c r="D31" s="48" t="s">
@@ -2334,8 +2334,8 @@
       </c>
     </row>
     <row r="32" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="70"/>
-      <c r="C32" s="71"/>
+      <c r="B32" s="61"/>
+      <c r="C32" s="62"/>
       <c r="D32" s="42" t="s">
         <v>119</v>
       </c>
@@ -2344,8 +2344,8 @@
       </c>
     </row>
     <row r="33" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="70"/>
-      <c r="C33" s="71"/>
+      <c r="B33" s="61"/>
+      <c r="C33" s="62"/>
       <c r="D33" s="45" t="s">
         <v>120</v>
       </c>
@@ -2368,10 +2368,10 @@
       </c>
     </row>
     <row r="35" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="70" t="s">
+      <c r="B35" s="61" t="s">
         <v>201</v>
       </c>
-      <c r="C35" s="71" t="s">
+      <c r="C35" s="62" t="s">
         <v>248</v>
       </c>
       <c r="D35" s="48" t="s">
@@ -2382,8 +2382,8 @@
       </c>
     </row>
     <row r="36" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="70"/>
-      <c r="C36" s="71"/>
+      <c r="B36" s="61"/>
+      <c r="C36" s="62"/>
       <c r="D36" s="43" t="s">
         <v>123</v>
       </c>
@@ -2392,10 +2392,10 @@
       </c>
     </row>
     <row r="37" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="59" t="s">
+      <c r="B37" s="63" t="s">
         <v>202</v>
       </c>
-      <c r="C37" s="61" t="s">
+      <c r="C37" s="65" t="s">
         <v>249</v>
       </c>
       <c r="D37" s="38" t="s">
@@ -2406,8 +2406,8 @@
       </c>
     </row>
     <row r="38" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="58"/>
-      <c r="C38" s="60"/>
+      <c r="B38" s="64"/>
+      <c r="C38" s="66"/>
       <c r="D38" s="42" t="s">
         <v>125</v>
       </c>
@@ -2416,10 +2416,10 @@
       </c>
     </row>
     <row r="39" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="70" t="s">
+      <c r="B39" s="61" t="s">
         <v>203</v>
       </c>
-      <c r="C39" s="71" t="s">
+      <c r="C39" s="62" t="s">
         <v>250</v>
       </c>
       <c r="D39" s="48" t="s">
@@ -2430,8 +2430,8 @@
       </c>
     </row>
     <row r="40" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="70"/>
-      <c r="C40" s="71"/>
+      <c r="B40" s="61"/>
+      <c r="C40" s="62"/>
       <c r="D40" s="43" t="s">
         <v>127</v>
       </c>
@@ -2454,18 +2454,18 @@
       </c>
     </row>
     <row r="42" spans="2:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="77" t="s">
+      <c r="B42" s="53" t="s">
         <v>283</v>
       </c>
-      <c r="C42" s="77"/>
-      <c r="D42" s="77"/>
-      <c r="E42" s="77"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="53"/>
+      <c r="E42" s="53"/>
     </row>
     <row r="43" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="73" t="s">
+      <c r="B43" s="59" t="s">
         <v>205</v>
       </c>
-      <c r="C43" s="72" t="s">
+      <c r="C43" s="60" t="s">
         <v>252</v>
       </c>
       <c r="D43" s="5" t="s">
@@ -2476,8 +2476,8 @@
       </c>
     </row>
     <row r="44" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="73"/>
-      <c r="C44" s="72"/>
+      <c r="B44" s="59"/>
+      <c r="C44" s="60"/>
       <c r="D44" s="5" t="s">
         <v>130</v>
       </c>
@@ -2528,10 +2528,10 @@
       </c>
     </row>
     <row r="48" spans="2:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="73" t="s">
+      <c r="B48" s="59" t="s">
         <v>209</v>
       </c>
-      <c r="C48" s="72" t="s">
+      <c r="C48" s="60" t="s">
         <v>256</v>
       </c>
       <c r="D48" s="5" t="s">
@@ -2542,8 +2542,8 @@
       </c>
     </row>
     <row r="49" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="73"/>
-      <c r="C49" s="72"/>
+      <c r="B49" s="59"/>
+      <c r="C49" s="60"/>
       <c r="D49" s="5" t="s">
         <v>135</v>
       </c>
@@ -2552,10 +2552,10 @@
       </c>
     </row>
     <row r="50" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="73" t="s">
+      <c r="B50" s="59" t="s">
         <v>210</v>
       </c>
-      <c r="C50" s="72" t="s">
+      <c r="C50" s="60" t="s">
         <v>257</v>
       </c>
       <c r="D50" s="5" t="s">
@@ -2566,8 +2566,8 @@
       </c>
     </row>
     <row r="51" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="73"/>
-      <c r="C51" s="72"/>
+      <c r="B51" s="59"/>
+      <c r="C51" s="60"/>
       <c r="D51" s="5" t="s">
         <v>137</v>
       </c>
@@ -2576,10 +2576,10 @@
       </c>
     </row>
     <row r="52" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="73" t="s">
+      <c r="B52" s="59" t="s">
         <v>211</v>
       </c>
-      <c r="C52" s="72" t="s">
+      <c r="C52" s="60" t="s">
         <v>258</v>
       </c>
       <c r="D52" s="5" t="s">
@@ -2590,8 +2590,8 @@
       </c>
     </row>
     <row r="53" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="73"/>
-      <c r="C53" s="72"/>
+      <c r="B53" s="59"/>
+      <c r="C53" s="60"/>
       <c r="D53" s="5" t="s">
         <v>139</v>
       </c>
@@ -2600,8 +2600,8 @@
       </c>
     </row>
     <row r="54" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="73"/>
-      <c r="C54" s="72"/>
+      <c r="B54" s="59"/>
+      <c r="C54" s="60"/>
       <c r="D54" s="5" t="s">
         <v>140</v>
       </c>
@@ -2610,18 +2610,18 @@
       </c>
     </row>
     <row r="55" spans="2:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="77" t="s">
+      <c r="B55" s="53" t="s">
         <v>284</v>
       </c>
-      <c r="C55" s="77"/>
-      <c r="D55" s="77"/>
-      <c r="E55" s="77"/>
+      <c r="C55" s="53"/>
+      <c r="D55" s="53"/>
+      <c r="E55" s="53"/>
     </row>
     <row r="56" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="73" t="s">
+      <c r="B56" s="59" t="s">
         <v>212</v>
       </c>
-      <c r="C56" s="72" t="s">
+      <c r="C56" s="60" t="s">
         <v>259</v>
       </c>
       <c r="D56" s="5" t="s">
@@ -2632,8 +2632,8 @@
       </c>
     </row>
     <row r="57" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="73"/>
-      <c r="C57" s="72"/>
+      <c r="B57" s="59"/>
+      <c r="C57" s="60"/>
       <c r="D57" s="5" t="s">
         <v>142</v>
       </c>
@@ -2642,8 +2642,8 @@
       </c>
     </row>
     <row r="58" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="73"/>
-      <c r="C58" s="72"/>
+      <c r="B58" s="59"/>
+      <c r="C58" s="60"/>
       <c r="D58" s="5" t="s">
         <v>143</v>
       </c>
@@ -2652,8 +2652,8 @@
       </c>
     </row>
     <row r="59" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="73"/>
-      <c r="C59" s="72"/>
+      <c r="B59" s="59"/>
+      <c r="C59" s="60"/>
       <c r="D59" s="5" t="s">
         <v>144</v>
       </c>
@@ -2662,10 +2662,10 @@
       </c>
     </row>
     <row r="60" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="73" t="s">
+      <c r="B60" s="59" t="s">
         <v>213</v>
       </c>
-      <c r="C60" s="72" t="s">
+      <c r="C60" s="60" t="s">
         <v>260</v>
       </c>
       <c r="D60" s="5" t="s">
@@ -2676,8 +2676,8 @@
       </c>
     </row>
     <row r="61" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="73"/>
-      <c r="C61" s="72"/>
+      <c r="B61" s="59"/>
+      <c r="C61" s="60"/>
       <c r="D61" s="5" t="s">
         <v>146</v>
       </c>
@@ -2686,10 +2686,10 @@
       </c>
     </row>
     <row r="62" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="73" t="s">
+      <c r="B62" s="59" t="s">
         <v>214</v>
       </c>
-      <c r="C62" s="72" t="s">
+      <c r="C62" s="60" t="s">
         <v>261</v>
       </c>
       <c r="D62" s="5" t="s">
@@ -2700,8 +2700,8 @@
       </c>
     </row>
     <row r="63" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="73"/>
-      <c r="C63" s="72"/>
+      <c r="B63" s="59"/>
+      <c r="C63" s="60"/>
       <c r="D63" s="5" t="s">
         <v>148</v>
       </c>
@@ -2738,10 +2738,10 @@
       </c>
     </row>
     <row r="66" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="73" t="s">
+      <c r="B66" s="59" t="s">
         <v>217</v>
       </c>
-      <c r="C66" s="72" t="s">
+      <c r="C66" s="60" t="s">
         <v>264</v>
       </c>
       <c r="D66" s="5" t="s">
@@ -2752,8 +2752,8 @@
       </c>
     </row>
     <row r="67" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="73"/>
-      <c r="C67" s="72"/>
+      <c r="B67" s="59"/>
+      <c r="C67" s="60"/>
       <c r="D67" s="5" t="s">
         <v>152</v>
       </c>
@@ -2762,8 +2762,8 @@
       </c>
     </row>
     <row r="68" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="73"/>
-      <c r="C68" s="72"/>
+      <c r="B68" s="59"/>
+      <c r="C68" s="60"/>
       <c r="D68" s="5" t="s">
         <v>153</v>
       </c>
@@ -2786,10 +2786,10 @@
       </c>
     </row>
     <row r="70" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="73" t="s">
+      <c r="B70" s="59" t="s">
         <v>219</v>
       </c>
-      <c r="C70" s="72" t="s">
+      <c r="C70" s="60" t="s">
         <v>266</v>
       </c>
       <c r="D70" s="5" t="s">
@@ -2800,8 +2800,8 @@
       </c>
     </row>
     <row r="71" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="73"/>
-      <c r="C71" s="72"/>
+      <c r="B71" s="59"/>
+      <c r="C71" s="60"/>
       <c r="D71" s="5" t="s">
         <v>156</v>
       </c>
@@ -2824,10 +2824,10 @@
       </c>
     </row>
     <row r="73" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="73" t="s">
+      <c r="B73" s="59" t="s">
         <v>221</v>
       </c>
-      <c r="C73" s="72" t="s">
+      <c r="C73" s="60" t="s">
         <v>268</v>
       </c>
       <c r="D73" s="5" t="s">
@@ -2838,8 +2838,8 @@
       </c>
     </row>
     <row r="74" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="73"/>
-      <c r="C74" s="72"/>
+      <c r="B74" s="59"/>
+      <c r="C74" s="60"/>
       <c r="D74" s="5" t="s">
         <v>159</v>
       </c>
@@ -2848,10 +2848,10 @@
       </c>
     </row>
     <row r="75" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="73" t="s">
+      <c r="B75" s="59" t="s">
         <v>222</v>
       </c>
-      <c r="C75" s="72" t="s">
+      <c r="C75" s="60" t="s">
         <v>269</v>
       </c>
       <c r="D75" s="5" t="s">
@@ -2862,8 +2862,8 @@
       </c>
     </row>
     <row r="76" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="73"/>
-      <c r="C76" s="72"/>
+      <c r="B76" s="59"/>
+      <c r="C76" s="60"/>
       <c r="D76" s="5" t="s">
         <v>161</v>
       </c>
@@ -2886,18 +2886,18 @@
       </c>
     </row>
     <row r="78" spans="2:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="77" t="s">
+      <c r="B78" s="53" t="s">
         <v>285</v>
       </c>
-      <c r="C78" s="77"/>
-      <c r="D78" s="77"/>
-      <c r="E78" s="77"/>
+      <c r="C78" s="53"/>
+      <c r="D78" s="53"/>
+      <c r="E78" s="53"/>
     </row>
     <row r="79" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="73" t="s">
+      <c r="B79" s="59" t="s">
         <v>224</v>
       </c>
-      <c r="C79" s="72" t="s">
+      <c r="C79" s="60" t="s">
         <v>271</v>
       </c>
       <c r="D79" s="5" t="s">
@@ -2908,8 +2908,8 @@
       </c>
     </row>
     <row r="80" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="73"/>
-      <c r="C80" s="72"/>
+      <c r="B80" s="59"/>
+      <c r="C80" s="60"/>
       <c r="D80" s="5" t="s">
         <v>164</v>
       </c>
@@ -2932,10 +2932,10 @@
       </c>
     </row>
     <row r="82" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="73" t="s">
+      <c r="B82" s="59" t="s">
         <v>226</v>
       </c>
-      <c r="C82" s="72" t="s">
+      <c r="C82" s="60" t="s">
         <v>273</v>
       </c>
       <c r="D82" s="5" t="s">
@@ -2946,8 +2946,8 @@
       </c>
     </row>
     <row r="83" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="73"/>
-      <c r="C83" s="72"/>
+      <c r="B83" s="59"/>
+      <c r="C83" s="60"/>
       <c r="D83" s="5" t="s">
         <v>167</v>
       </c>
@@ -2956,8 +2956,8 @@
       </c>
     </row>
     <row r="84" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="73"/>
-      <c r="C84" s="72"/>
+      <c r="B84" s="59"/>
+      <c r="C84" s="60"/>
       <c r="D84" s="5" t="s">
         <v>168</v>
       </c>
@@ -2966,10 +2966,10 @@
       </c>
     </row>
     <row r="85" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="73" t="s">
+      <c r="B85" s="59" t="s">
         <v>227</v>
       </c>
-      <c r="C85" s="72" t="s">
+      <c r="C85" s="60" t="s">
         <v>274</v>
       </c>
       <c r="D85" s="5" t="s">
@@ -2980,8 +2980,8 @@
       </c>
     </row>
     <row r="86" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="73"/>
-      <c r="C86" s="72"/>
+      <c r="B86" s="59"/>
+      <c r="C86" s="60"/>
       <c r="D86" s="5" t="s">
         <v>170</v>
       </c>
@@ -2990,8 +2990,8 @@
       </c>
     </row>
     <row r="87" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="73"/>
-      <c r="C87" s="72"/>
+      <c r="B87" s="59"/>
+      <c r="C87" s="60"/>
       <c r="D87" s="5" t="s">
         <v>171</v>
       </c>
@@ -3014,10 +3014,10 @@
       </c>
     </row>
     <row r="89" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="73" t="s">
+      <c r="B89" s="59" t="s">
         <v>229</v>
       </c>
-      <c r="C89" s="72" t="s">
+      <c r="C89" s="60" t="s">
         <v>276</v>
       </c>
       <c r="D89" s="5" t="s">
@@ -3028,8 +3028,8 @@
       </c>
     </row>
     <row r="90" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="73"/>
-      <c r="C90" s="72"/>
+      <c r="B90" s="59"/>
+      <c r="C90" s="60"/>
       <c r="D90" s="5" t="s">
         <v>174</v>
       </c>
@@ -3052,10 +3052,10 @@
       </c>
     </row>
     <row r="92" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="73" t="s">
+      <c r="B92" s="59" t="s">
         <v>231</v>
       </c>
-      <c r="C92" s="72" t="s">
+      <c r="C92" s="60" t="s">
         <v>278</v>
       </c>
       <c r="D92" s="5" t="s">
@@ -3066,8 +3066,8 @@
       </c>
     </row>
     <row r="93" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="73"/>
-      <c r="C93" s="72"/>
+      <c r="B93" s="59"/>
+      <c r="C93" s="60"/>
       <c r="D93" s="5" t="s">
         <v>177</v>
       </c>
@@ -3076,8 +3076,8 @@
       </c>
     </row>
     <row r="94" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="73"/>
-      <c r="C94" s="72"/>
+      <c r="B94" s="59"/>
+      <c r="C94" s="60"/>
       <c r="D94" s="5" t="s">
         <v>178</v>
       </c>
@@ -3086,10 +3086,10 @@
       </c>
     </row>
     <row r="95" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="73" t="s">
+      <c r="B95" s="59" t="s">
         <v>232</v>
       </c>
-      <c r="C95" s="72" t="s">
+      <c r="C95" s="60" t="s">
         <v>279</v>
       </c>
       <c r="D95" s="5" t="s">
@@ -3100,8 +3100,8 @@
       </c>
     </row>
     <row r="96" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="73"/>
-      <c r="C96" s="72"/>
+      <c r="B96" s="59"/>
+      <c r="C96" s="60"/>
       <c r="D96" s="5" t="s">
         <v>180</v>
       </c>
@@ -3110,8 +3110,8 @@
       </c>
     </row>
     <row r="97" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="73"/>
-      <c r="C97" s="72"/>
+      <c r="B97" s="59"/>
+      <c r="C97" s="60"/>
       <c r="D97" s="5" t="s">
         <v>181</v>
       </c>
@@ -3120,8 +3120,8 @@
       </c>
     </row>
     <row r="98" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="73"/>
-      <c r="C98" s="72"/>
+      <c r="B98" s="59"/>
+      <c r="C98" s="60"/>
       <c r="D98" s="5" t="s">
         <v>182</v>
       </c>
@@ -3130,10 +3130,10 @@
       </c>
     </row>
     <row r="99" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="73" t="s">
+      <c r="B99" s="59" t="s">
         <v>233</v>
       </c>
-      <c r="C99" s="72" t="s">
+      <c r="C99" s="60" t="s">
         <v>280</v>
       </c>
       <c r="D99" s="5" t="s">
@@ -3144,8 +3144,8 @@
       </c>
     </row>
     <row r="100" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="73"/>
-      <c r="C100" s="72"/>
+      <c r="B100" s="59"/>
+      <c r="C100" s="60"/>
       <c r="D100" s="5" t="s">
         <v>184</v>
       </c>
@@ -3154,8 +3154,8 @@
       </c>
     </row>
     <row r="101" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="73"/>
-      <c r="C101" s="72"/>
+      <c r="B101" s="59"/>
+      <c r="C101" s="60"/>
       <c r="D101" s="5" t="s">
         <v>185</v>
       </c>
@@ -3164,8 +3164,8 @@
       </c>
     </row>
     <row r="102" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="73"/>
-      <c r="C102" s="72"/>
+      <c r="B102" s="59"/>
+      <c r="C102" s="60"/>
       <c r="D102" s="5" t="s">
         <v>186</v>
       </c>
@@ -3189,6 +3189,59 @@
     </row>
   </sheetData>
   <mergeCells count="69">
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C56:C59"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="C66:C68"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="B82:B84"/>
+    <mergeCell ref="C82:C84"/>
+    <mergeCell ref="B85:B87"/>
+    <mergeCell ref="C85:C87"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:C90"/>
+    <mergeCell ref="B92:B94"/>
+    <mergeCell ref="C92:C94"/>
+    <mergeCell ref="B95:B98"/>
+    <mergeCell ref="C95:C98"/>
+    <mergeCell ref="B99:B102"/>
+    <mergeCell ref="C99:C102"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B42:E42"/>
     <mergeCell ref="B55:E55"/>
@@ -3205,59 +3258,6 @@
     <mergeCell ref="B52:B54"/>
     <mergeCell ref="C52:C54"/>
     <mergeCell ref="B56:B59"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="C92:C94"/>
-    <mergeCell ref="B95:B98"/>
-    <mergeCell ref="C95:C98"/>
-    <mergeCell ref="B99:B102"/>
-    <mergeCell ref="C99:C102"/>
-    <mergeCell ref="B82:B84"/>
-    <mergeCell ref="C82:C84"/>
-    <mergeCell ref="B85:B87"/>
-    <mergeCell ref="C85:C87"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="B66:B68"/>
-    <mergeCell ref="C66:C68"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>

--- a/== MATERIAL/(FyQ) - Estandares de aprendizaje.xlsx
+++ b/== MATERIAL/(FyQ) - Estandares de aprendizaje.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="289">
   <si>
     <t>REF</t>
   </si>
@@ -1009,7 +1009,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -1419,11 +1419,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1572,6 +1602,84 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1599,77 +1707,62 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1960,10 +2053,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E103"/>
+  <dimension ref="B1:E107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82:E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.109375" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -1982,22 +2075,22 @@
       <c r="D1" s="6"/>
     </row>
     <row r="2" spans="2:5" s="4" customFormat="1" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="76" t="s">
         <v>282</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="52"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="78"/>
     </row>
     <row r="3" spans="2:5" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="80" t="s">
         <v>286</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="56" t="s">
+      <c r="C3" s="81"/>
+      <c r="D3" s="82" t="s">
         <v>287</v>
       </c>
-      <c r="E3" s="57"/>
+      <c r="E3" s="83"/>
     </row>
     <row r="4" spans="2:5" s="9" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="34" t="s">
@@ -2014,10 +2107,10 @@
       </c>
     </row>
     <row r="5" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="52" t="s">
         <v>188</v>
       </c>
-      <c r="C5" s="77" t="s">
+      <c r="C5" s="54" t="s">
         <v>235</v>
       </c>
       <c r="D5" s="18" t="s">
@@ -2028,8 +2121,8 @@
       </c>
     </row>
     <row r="6" spans="2:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="76"/>
-      <c r="C6" s="78"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="55"/>
       <c r="D6" s="19" t="s">
         <v>96</v>
       </c>
@@ -2066,10 +2159,10 @@
       </c>
     </row>
     <row r="9" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="79" t="s">
+      <c r="B9" s="56" t="s">
         <v>191</v>
       </c>
-      <c r="C9" s="81" t="s">
+      <c r="C9" s="58" t="s">
         <v>238</v>
       </c>
       <c r="D9" s="30" t="s">
@@ -2080,8 +2173,8 @@
       </c>
     </row>
     <row r="10" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="80"/>
-      <c r="C10" s="82"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="59"/>
       <c r="D10" s="32" t="s">
         <v>100</v>
       </c>
@@ -2090,10 +2183,10 @@
       </c>
     </row>
     <row r="11" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="60" t="s">
         <v>192</v>
       </c>
-      <c r="C11" s="66" t="s">
+      <c r="C11" s="62" t="s">
         <v>239</v>
       </c>
       <c r="D11" s="30" t="s">
@@ -2104,8 +2197,8 @@
       </c>
     </row>
     <row r="12" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="63"/>
-      <c r="C12" s="65"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="63"/>
       <c r="D12" s="32" t="s">
         <v>102</v>
       </c>
@@ -2114,10 +2207,10 @@
       </c>
     </row>
     <row r="13" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="67" t="s">
+      <c r="B13" s="64" t="s">
         <v>193</v>
       </c>
-      <c r="C13" s="69" t="s">
+      <c r="C13" s="66" t="s">
         <v>240</v>
       </c>
       <c r="D13" s="20" t="s">
@@ -2128,8 +2221,8 @@
       </c>
     </row>
     <row r="14" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="68"/>
-      <c r="C14" s="70"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="67"/>
       <c r="D14" s="19" t="s">
         <v>104</v>
       </c>
@@ -2138,22 +2231,22 @@
       </c>
     </row>
     <row r="15" spans="2:5" s="4" customFormat="1" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="76" t="s">
         <v>288</v>
       </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="52"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="78"/>
     </row>
     <row r="16" spans="2:5" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="54" t="s">
+      <c r="B16" s="80" t="s">
         <v>286</v>
       </c>
-      <c r="C16" s="55"/>
-      <c r="D16" s="58" t="s">
+      <c r="C16" s="81"/>
+      <c r="D16" s="84" t="s">
         <v>287</v>
       </c>
-      <c r="E16" s="57"/>
+      <c r="E16" s="83"/>
     </row>
     <row r="17" spans="2:5" s="9" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="34" t="s">
@@ -2170,10 +2263,10 @@
       </c>
     </row>
     <row r="18" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="71" t="s">
+      <c r="B18" s="68" t="s">
         <v>194</v>
       </c>
-      <c r="C18" s="73" t="s">
+      <c r="C18" s="70" t="s">
         <v>241</v>
       </c>
       <c r="D18" s="41" t="s">
@@ -2184,8 +2277,8 @@
       </c>
     </row>
     <row r="19" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="72"/>
-      <c r="C19" s="74"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="71"/>
       <c r="D19" s="38" t="s">
         <v>106</v>
       </c>
@@ -2194,8 +2287,8 @@
       </c>
     </row>
     <row r="20" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="64"/>
-      <c r="C20" s="66"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="62"/>
       <c r="D20" s="42" t="s">
         <v>107</v>
       </c>
@@ -2204,10 +2297,10 @@
       </c>
     </row>
     <row r="21" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="61" t="s">
+      <c r="B21" s="72" t="s">
         <v>195</v>
       </c>
-      <c r="C21" s="62" t="s">
+      <c r="C21" s="73" t="s">
         <v>242</v>
       </c>
       <c r="D21" s="48" t="s">
@@ -2218,8 +2311,8 @@
       </c>
     </row>
     <row r="22" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="61"/>
-      <c r="C22" s="62"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="73"/>
       <c r="D22" s="42" t="s">
         <v>109</v>
       </c>
@@ -2228,8 +2321,8 @@
       </c>
     </row>
     <row r="23" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="61"/>
-      <c r="C23" s="62"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="73"/>
       <c r="D23" s="38" t="s">
         <v>110</v>
       </c>
@@ -2238,8 +2331,8 @@
       </c>
     </row>
     <row r="24" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="61"/>
-      <c r="C24" s="62"/>
+      <c r="B24" s="72"/>
+      <c r="C24" s="73"/>
       <c r="D24" s="43" t="s">
         <v>111</v>
       </c>
@@ -2248,10 +2341,10 @@
       </c>
     </row>
     <row r="25" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="63" t="s">
+      <c r="B25" s="61" t="s">
         <v>196</v>
       </c>
-      <c r="C25" s="65" t="s">
+      <c r="C25" s="63" t="s">
         <v>243</v>
       </c>
       <c r="D25" s="38" t="s">
@@ -2262,8 +2355,8 @@
       </c>
     </row>
     <row r="26" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="64"/>
-      <c r="C26" s="66"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="62"/>
       <c r="D26" s="42" t="s">
         <v>113</v>
       </c>
@@ -2272,10 +2365,10 @@
       </c>
     </row>
     <row r="27" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="61" t="s">
+      <c r="B27" s="72" t="s">
         <v>197</v>
       </c>
-      <c r="C27" s="62" t="s">
+      <c r="C27" s="73" t="s">
         <v>244</v>
       </c>
       <c r="D27" s="48" t="s">
@@ -2286,8 +2379,8 @@
       </c>
     </row>
     <row r="28" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="61"/>
-      <c r="C28" s="62"/>
+      <c r="B28" s="72"/>
+      <c r="C28" s="73"/>
       <c r="D28" s="42" t="s">
         <v>115</v>
       </c>
@@ -2296,8 +2389,8 @@
       </c>
     </row>
     <row r="29" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="61"/>
-      <c r="C29" s="62"/>
+      <c r="B29" s="72"/>
+      <c r="C29" s="73"/>
       <c r="D29" s="45" t="s">
         <v>116</v>
       </c>
@@ -2320,10 +2413,10 @@
       </c>
     </row>
     <row r="31" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="61" t="s">
+      <c r="B31" s="72" t="s">
         <v>199</v>
       </c>
-      <c r="C31" s="62" t="s">
+      <c r="C31" s="73" t="s">
         <v>246</v>
       </c>
       <c r="D31" s="48" t="s">
@@ -2334,8 +2427,8 @@
       </c>
     </row>
     <row r="32" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="61"/>
-      <c r="C32" s="62"/>
+      <c r="B32" s="72"/>
+      <c r="C32" s="73"/>
       <c r="D32" s="42" t="s">
         <v>119</v>
       </c>
@@ -2344,8 +2437,8 @@
       </c>
     </row>
     <row r="33" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="61"/>
-      <c r="C33" s="62"/>
+      <c r="B33" s="72"/>
+      <c r="C33" s="73"/>
       <c r="D33" s="45" t="s">
         <v>120</v>
       </c>
@@ -2368,10 +2461,10 @@
       </c>
     </row>
     <row r="35" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="61" t="s">
+      <c r="B35" s="72" t="s">
         <v>201</v>
       </c>
-      <c r="C35" s="62" t="s">
+      <c r="C35" s="73" t="s">
         <v>248</v>
       </c>
       <c r="D35" s="48" t="s">
@@ -2382,8 +2475,8 @@
       </c>
     </row>
     <row r="36" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="61"/>
-      <c r="C36" s="62"/>
+      <c r="B36" s="72"/>
+      <c r="C36" s="73"/>
       <c r="D36" s="43" t="s">
         <v>123</v>
       </c>
@@ -2392,10 +2485,10 @@
       </c>
     </row>
     <row r="37" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="63" t="s">
+      <c r="B37" s="61" t="s">
         <v>202</v>
       </c>
-      <c r="C37" s="65" t="s">
+      <c r="C37" s="63" t="s">
         <v>249</v>
       </c>
       <c r="D37" s="38" t="s">
@@ -2406,8 +2499,8 @@
       </c>
     </row>
     <row r="38" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="64"/>
-      <c r="C38" s="66"/>
+      <c r="B38" s="60"/>
+      <c r="C38" s="62"/>
       <c r="D38" s="42" t="s">
         <v>125</v>
       </c>
@@ -2416,10 +2509,10 @@
       </c>
     </row>
     <row r="39" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="61" t="s">
+      <c r="B39" s="72" t="s">
         <v>203</v>
       </c>
-      <c r="C39" s="62" t="s">
+      <c r="C39" s="73" t="s">
         <v>250</v>
       </c>
       <c r="D39" s="48" t="s">
@@ -2430,8 +2523,8 @@
       </c>
     </row>
     <row r="40" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="61"/>
-      <c r="C40" s="62"/>
+      <c r="B40" s="72"/>
+      <c r="C40" s="73"/>
       <c r="D40" s="43" t="s">
         <v>127</v>
       </c>
@@ -2453,811 +2546,863 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="2:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="53" t="s">
+    <row r="42" spans="2:5" s="4" customFormat="1" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="76" t="s">
         <v>283</v>
       </c>
-      <c r="C42" s="53"/>
-      <c r="D42" s="53"/>
-      <c r="E42" s="53"/>
-    </row>
-    <row r="43" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="59" t="s">
+      <c r="C42" s="77"/>
+      <c r="D42" s="77"/>
+      <c r="E42" s="78"/>
+    </row>
+    <row r="43" spans="2:5" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="80" t="s">
+        <v>286</v>
+      </c>
+      <c r="C43" s="81"/>
+      <c r="D43" s="84" t="s">
+        <v>287</v>
+      </c>
+      <c r="E43" s="83"/>
+    </row>
+    <row r="44" spans="2:5" s="9" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="E44" s="37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="52" t="s">
         <v>205</v>
       </c>
-      <c r="C43" s="60" t="s">
+      <c r="C45" s="54" t="s">
         <v>252</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D45" s="87" t="s">
         <v>129</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="E45" s="14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="59"/>
-      <c r="C44" s="60"/>
-      <c r="D44" s="5" t="s">
+    <row r="46" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="85"/>
+      <c r="C46" s="86"/>
+      <c r="D46" s="88" t="s">
         <v>130</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="E46" s="89" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="5" t="s">
+    <row r="47" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="50" t="s">
         <v>206</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C47" s="51" t="s">
         <v>253</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D47" s="92" t="s">
         <v>131</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="E47" s="93" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="5" t="s">
+    <row r="48" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C48" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D48" s="88" t="s">
         <v>132</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="E48" s="89" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="5" t="s">
+    <row r="49" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="50" t="s">
         <v>208</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C49" s="51" t="s">
         <v>255</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D49" s="92" t="s">
         <v>133</v>
       </c>
-      <c r="E47" s="7" t="s">
+      <c r="E49" s="93" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="2:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="59" t="s">
+    <row r="50" spans="2:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="85" t="s">
         <v>209</v>
       </c>
-      <c r="C48" s="60" t="s">
+      <c r="C50" s="86" t="s">
         <v>256</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D50" s="88" t="s">
         <v>134</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="E50" s="89" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="49" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="59"/>
-      <c r="C49" s="60"/>
-      <c r="D49" s="5" t="s">
+    <row r="51" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="85"/>
+      <c r="C51" s="86"/>
+      <c r="D51" s="90" t="s">
         <v>135</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="E51" s="16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="59" t="s">
+    <row r="52" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="56" t="s">
         <v>210</v>
       </c>
-      <c r="C50" s="60" t="s">
+      <c r="C52" s="58" t="s">
         <v>257</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D52" s="94" t="s">
         <v>136</v>
       </c>
-      <c r="E50" s="7" t="s">
+      <c r="E52" s="95" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="51" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="59"/>
-      <c r="C51" s="60"/>
-      <c r="D51" s="5" t="s">
+    <row r="53" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="57"/>
+      <c r="C53" s="59"/>
+      <c r="D53" s="96" t="s">
         <v>137</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="E53" s="97" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="52" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="59" t="s">
+    <row r="54" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="85" t="s">
         <v>211</v>
       </c>
-      <c r="C52" s="60" t="s">
+      <c r="C54" s="86" t="s">
         <v>258</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="D54" s="88" t="s">
         <v>138</v>
       </c>
-      <c r="E52" s="7" t="s">
+      <c r="E54" s="89" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="59"/>
-      <c r="C53" s="60"/>
-      <c r="D53" s="5" t="s">
+    <row r="55" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="85"/>
+      <c r="C55" s="86"/>
+      <c r="D55" s="90" t="s">
         <v>139</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="E55" s="16" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="59"/>
-      <c r="C54" s="60"/>
-      <c r="D54" s="5" t="s">
+    <row r="56" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="53"/>
+      <c r="C56" s="55"/>
+      <c r="D56" s="91" t="s">
         <v>140</v>
       </c>
-      <c r="E54" s="7" t="s">
+      <c r="E56" s="15" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="55" spans="2:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="53" t="s">
+    <row r="57" spans="2:5" s="4" customFormat="1" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="76" t="s">
         <v>284</v>
       </c>
-      <c r="C55" s="53"/>
-      <c r="D55" s="53"/>
-      <c r="E55" s="53"/>
-    </row>
-    <row r="56" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="59" t="s">
+      <c r="C57" s="77"/>
+      <c r="D57" s="77"/>
+      <c r="E57" s="78"/>
+    </row>
+    <row r="58" spans="2:5" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="80" t="s">
+        <v>286</v>
+      </c>
+      <c r="C58" s="81"/>
+      <c r="D58" s="84" t="s">
+        <v>287</v>
+      </c>
+      <c r="E58" s="83"/>
+    </row>
+    <row r="59" spans="2:5" s="9" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D59" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="E59" s="37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="52" t="s">
         <v>212</v>
       </c>
-      <c r="C56" s="60" t="s">
+      <c r="C60" s="54" t="s">
         <v>259</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="D60" s="87" t="s">
         <v>141</v>
       </c>
-      <c r="E56" s="7" t="s">
+      <c r="E60" s="14" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="57" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="59"/>
-      <c r="C57" s="60"/>
-      <c r="D57" s="5" t="s">
+    <row r="61" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="85"/>
+      <c r="C61" s="86"/>
+      <c r="D61" s="88" t="s">
         <v>142</v>
       </c>
-      <c r="E57" s="7" t="s">
+      <c r="E61" s="89" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="58" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="59"/>
-      <c r="C58" s="60"/>
-      <c r="D58" s="5" t="s">
+    <row r="62" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="85"/>
+      <c r="C62" s="86"/>
+      <c r="D62" s="90" t="s">
         <v>143</v>
       </c>
-      <c r="E58" s="7" t="s">
+      <c r="E62" s="16" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="59"/>
-      <c r="C59" s="60"/>
-      <c r="D59" s="5" t="s">
+    <row r="63" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="85"/>
+      <c r="C63" s="86"/>
+      <c r="D63" s="88" t="s">
         <v>144</v>
       </c>
-      <c r="E59" s="7" t="s">
+      <c r="E63" s="89" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="60" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="59" t="s">
+    <row r="64" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="56" t="s">
         <v>213</v>
       </c>
-      <c r="C60" s="60" t="s">
+      <c r="C64" s="58" t="s">
         <v>260</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="D64" s="98" t="s">
         <v>145</v>
       </c>
-      <c r="E60" s="7" t="s">
+      <c r="E64" s="31" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="61" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="59"/>
-      <c r="C61" s="60"/>
-      <c r="D61" s="5" t="s">
+    <row r="65" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="57"/>
+      <c r="C65" s="59"/>
+      <c r="D65" s="99" t="s">
         <v>146</v>
       </c>
-      <c r="E61" s="7" t="s">
+      <c r="E65" s="33" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="62" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="59" t="s">
+    <row r="66" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="85" t="s">
         <v>214</v>
       </c>
-      <c r="C62" s="60" t="s">
+      <c r="C66" s="86" t="s">
         <v>261</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="D66" s="90" t="s">
         <v>147</v>
       </c>
-      <c r="E62" s="7" t="s">
+      <c r="E66" s="16" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="63" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="59"/>
-      <c r="C63" s="60"/>
-      <c r="D63" s="5" t="s">
+    <row r="67" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="85"/>
+      <c r="C67" s="86"/>
+      <c r="D67" s="88" t="s">
         <v>148</v>
       </c>
-      <c r="E63" s="7" t="s">
+      <c r="E67" s="89" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="64" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="5" t="s">
+    <row r="68" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="50" t="s">
         <v>215</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C68" s="51" t="s">
         <v>262</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="D68" s="92" t="s">
         <v>149</v>
       </c>
-      <c r="E64" s="7" t="s">
+      <c r="E68" s="93" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="65" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="5" t="s">
+    <row r="69" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C69" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="D65" s="5" t="s">
+      <c r="D69" s="88" t="s">
         <v>150</v>
       </c>
-      <c r="E65" s="7" t="s">
+      <c r="E69" s="89" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="66" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="59" t="s">
+    <row r="70" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="56" t="s">
         <v>217</v>
       </c>
-      <c r="C66" s="60" t="s">
+      <c r="C70" s="58" t="s">
         <v>264</v>
       </c>
-      <c r="D66" s="5" t="s">
+      <c r="D70" s="98" t="s">
         <v>151</v>
       </c>
-      <c r="E66" s="7" t="s">
+      <c r="E70" s="31" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="67" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="59"/>
-      <c r="C67" s="60"/>
-      <c r="D67" s="5" t="s">
+    <row r="71" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="64"/>
+      <c r="C71" s="66"/>
+      <c r="D71" s="88" t="s">
         <v>152</v>
       </c>
-      <c r="E67" s="7" t="s">
+      <c r="E71" s="89" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="68" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="59"/>
-      <c r="C68" s="60"/>
-      <c r="D68" s="5" t="s">
+    <row r="72" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="57"/>
+      <c r="C72" s="59"/>
+      <c r="D72" s="96" t="s">
         <v>153</v>
       </c>
-      <c r="E68" s="7" t="s">
+      <c r="E72" s="97" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="69" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="5" t="s">
+    <row r="73" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C73" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="D69" s="5" t="s">
+      <c r="D73" s="88" t="s">
         <v>154</v>
       </c>
-      <c r="E69" s="7" t="s">
+      <c r="E73" s="89" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="70" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="59" t="s">
+    <row r="74" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="56" t="s">
         <v>219</v>
       </c>
-      <c r="C70" s="60" t="s">
+      <c r="C74" s="58" t="s">
         <v>266</v>
       </c>
-      <c r="D70" s="5" t="s">
+      <c r="D74" s="98" t="s">
         <v>155</v>
       </c>
-      <c r="E70" s="7" t="s">
+      <c r="E74" s="31" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="71" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="59"/>
-      <c r="C71" s="60"/>
-      <c r="D71" s="5" t="s">
+    <row r="75" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="57"/>
+      <c r="C75" s="59"/>
+      <c r="D75" s="99" t="s">
         <v>156</v>
       </c>
-      <c r="E71" s="7" t="s">
+      <c r="E75" s="33" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="72" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="5" t="s">
+    <row r="76" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C76" s="21" t="s">
         <v>267</v>
       </c>
-      <c r="D72" s="5" t="s">
+      <c r="D76" s="90" t="s">
         <v>157</v>
       </c>
-      <c r="E72" s="7" t="s">
+      <c r="E76" s="16" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="73" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="59" t="s">
+    <row r="77" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="56" t="s">
         <v>221</v>
       </c>
-      <c r="C73" s="60" t="s">
+      <c r="C77" s="58" t="s">
         <v>268</v>
       </c>
-      <c r="D73" s="5" t="s">
+      <c r="D77" s="94" t="s">
         <v>158</v>
       </c>
-      <c r="E73" s="7" t="s">
+      <c r="E77" s="95" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="74" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="59"/>
-      <c r="C74" s="60"/>
-      <c r="D74" s="5" t="s">
+    <row r="78" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="57"/>
+      <c r="C78" s="59"/>
+      <c r="D78" s="96" t="s">
         <v>159</v>
       </c>
-      <c r="E74" s="7" t="s">
+      <c r="E78" s="97" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="75" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="59" t="s">
+    <row r="79" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="85" t="s">
         <v>222</v>
       </c>
-      <c r="C75" s="60" t="s">
+      <c r="C79" s="86" t="s">
         <v>269</v>
       </c>
-      <c r="D75" s="5" t="s">
+      <c r="D79" s="88" t="s">
         <v>160</v>
       </c>
-      <c r="E75" s="7" t="s">
+      <c r="E79" s="89" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="76" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="59"/>
-      <c r="C76" s="60"/>
-      <c r="D76" s="5" t="s">
+    <row r="80" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="85"/>
+      <c r="C80" s="86"/>
+      <c r="D80" s="90" t="s">
         <v>161</v>
       </c>
-      <c r="E76" s="7" t="s">
+      <c r="E80" s="16" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="77" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="5" t="s">
+    <row r="81" spans="2:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B81" s="100" t="s">
         <v>223</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C81" s="101" t="s">
         <v>270</v>
       </c>
-      <c r="D77" s="5" t="s">
+      <c r="D81" s="102" t="s">
         <v>162</v>
       </c>
-      <c r="E77" s="7" t="s">
+      <c r="E81" s="103" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="78" spans="2:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="53" t="s">
+    <row r="82" spans="2:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="79" t="s">
         <v>285</v>
       </c>
-      <c r="C78" s="53"/>
-      <c r="D78" s="53"/>
-      <c r="E78" s="53"/>
-    </row>
-    <row r="79" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="59" t="s">
+      <c r="C82" s="79"/>
+      <c r="D82" s="79"/>
+      <c r="E82" s="79"/>
+    </row>
+    <row r="83" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="75" t="s">
         <v>224</v>
       </c>
-      <c r="C79" s="60" t="s">
+      <c r="C83" s="74" t="s">
         <v>271</v>
       </c>
-      <c r="D79" s="5" t="s">
+      <c r="D83" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="E79" s="7" t="s">
+      <c r="E83" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="59"/>
-      <c r="C80" s="60"/>
-      <c r="D80" s="5" t="s">
+    <row r="84" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="75"/>
+      <c r="C84" s="74"/>
+      <c r="D84" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="E80" s="7" t="s">
+      <c r="E84" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="81" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="5" t="s">
+    <row r="85" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C85" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="D81" s="5" t="s">
+      <c r="D85" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="E81" s="7" t="s">
+      <c r="E85" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="82" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="59" t="s">
+    <row r="86" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="75" t="s">
         <v>226</v>
       </c>
-      <c r="C82" s="60" t="s">
+      <c r="C86" s="74" t="s">
         <v>273</v>
       </c>
-      <c r="D82" s="5" t="s">
+      <c r="D86" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="E82" s="7" t="s">
+      <c r="E86" s="7" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="83" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="59"/>
-      <c r="C83" s="60"/>
-      <c r="D83" s="5" t="s">
+    <row r="87" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="75"/>
+      <c r="C87" s="74"/>
+      <c r="D87" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="E83" s="7" t="s">
+      <c r="E87" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="84" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="59"/>
-      <c r="C84" s="60"/>
-      <c r="D84" s="5" t="s">
+    <row r="88" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="75"/>
+      <c r="C88" s="74"/>
+      <c r="D88" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="E84" s="7" t="s">
+      <c r="E88" s="7" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="85" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="59" t="s">
+    <row r="89" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="75" t="s">
         <v>227</v>
       </c>
-      <c r="C85" s="60" t="s">
+      <c r="C89" s="74" t="s">
         <v>274</v>
       </c>
-      <c r="D85" s="5" t="s">
+      <c r="D89" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="E85" s="7" t="s">
+      <c r="E89" s="7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="86" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="59"/>
-      <c r="C86" s="60"/>
-      <c r="D86" s="5" t="s">
+    <row r="90" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="75"/>
+      <c r="C90" s="74"/>
+      <c r="D90" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="E86" s="7" t="s">
+      <c r="E90" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="87" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="59"/>
-      <c r="C87" s="60"/>
-      <c r="D87" s="5" t="s">
+    <row r="91" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="75"/>
+      <c r="C91" s="74"/>
+      <c r="D91" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="E87" s="7" t="s">
+      <c r="E91" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="88" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="5" t="s">
+    <row r="92" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="C92" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="D88" s="5" t="s">
+      <c r="D92" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="E88" s="7" t="s">
+      <c r="E92" s="7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="89" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="59" t="s">
+    <row r="93" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="75" t="s">
         <v>229</v>
       </c>
-      <c r="C89" s="60" t="s">
+      <c r="C93" s="74" t="s">
         <v>276</v>
       </c>
-      <c r="D89" s="5" t="s">
+      <c r="D93" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="E89" s="7" t="s">
+      <c r="E93" s="7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="90" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="59"/>
-      <c r="C90" s="60"/>
-      <c r="D90" s="5" t="s">
+    <row r="94" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="75"/>
+      <c r="C94" s="74"/>
+      <c r="D94" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="E90" s="7" t="s">
+      <c r="E94" s="7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="91" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="5" t="s">
+    <row r="95" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C95" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="D91" s="5" t="s">
+      <c r="D95" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="E91" s="7" t="s">
+      <c r="E95" s="7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="92" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="59" t="s">
+    <row r="96" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="75" t="s">
         <v>231</v>
       </c>
-      <c r="C92" s="60" t="s">
+      <c r="C96" s="74" t="s">
         <v>278</v>
       </c>
-      <c r="D92" s="5" t="s">
+      <c r="D96" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="E92" s="7" t="s">
+      <c r="E96" s="7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="93" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="59"/>
-      <c r="C93" s="60"/>
-      <c r="D93" s="5" t="s">
+    <row r="97" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="75"/>
+      <c r="C97" s="74"/>
+      <c r="D97" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="E93" s="7" t="s">
+      <c r="E97" s="7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="94" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="59"/>
-      <c r="C94" s="60"/>
-      <c r="D94" s="5" t="s">
+    <row r="98" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="75"/>
+      <c r="C98" s="74"/>
+      <c r="D98" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="E94" s="7" t="s">
+      <c r="E98" s="7" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="95" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="59" t="s">
+    <row r="99" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B99" s="75" t="s">
         <v>232</v>
       </c>
-      <c r="C95" s="60" t="s">
+      <c r="C99" s="74" t="s">
         <v>279</v>
       </c>
-      <c r="D95" s="5" t="s">
+      <c r="D99" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="E95" s="7" t="s">
+      <c r="E99" s="7" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="96" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="59"/>
-      <c r="C96" s="60"/>
-      <c r="D96" s="5" t="s">
+    <row r="100" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="75"/>
+      <c r="C100" s="74"/>
+      <c r="D100" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="E96" s="7" t="s">
+      <c r="E100" s="7" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="97" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="59"/>
-      <c r="C97" s="60"/>
-      <c r="D97" s="5" t="s">
+    <row r="101" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="75"/>
+      <c r="C101" s="74"/>
+      <c r="D101" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="E97" s="7" t="s">
+      <c r="E101" s="7" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="98" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="59"/>
-      <c r="C98" s="60"/>
-      <c r="D98" s="5" t="s">
+    <row r="102" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B102" s="75"/>
+      <c r="C102" s="74"/>
+      <c r="D102" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="E98" s="7" t="s">
+      <c r="E102" s="7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="99" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="59" t="s">
+    <row r="103" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B103" s="75" t="s">
         <v>233</v>
       </c>
-      <c r="C99" s="60" t="s">
+      <c r="C103" s="74" t="s">
         <v>280</v>
       </c>
-      <c r="D99" s="5" t="s">
+      <c r="D103" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="E99" s="7" t="s">
+      <c r="E103" s="7" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="100" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="59"/>
-      <c r="C100" s="60"/>
-      <c r="D100" s="5" t="s">
+    <row r="104" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B104" s="75"/>
+      <c r="C104" s="74"/>
+      <c r="D104" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="E100" s="7" t="s">
+      <c r="E104" s="7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="101" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="59"/>
-      <c r="C101" s="60"/>
-      <c r="D101" s="5" t="s">
+    <row r="105" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B105" s="75"/>
+      <c r="C105" s="74"/>
+      <c r="D105" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="E101" s="7" t="s">
+      <c r="E105" s="7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="102" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="59"/>
-      <c r="C102" s="60"/>
-      <c r="D102" s="5" t="s">
+    <row r="106" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B106" s="75"/>
+      <c r="C106" s="74"/>
+      <c r="D106" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="E102" s="7" t="s">
+      <c r="E106" s="7" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="103" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="5" t="s">
+    <row r="107" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B107" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="C107" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="D103" s="5" t="s">
+      <c r="D107" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="E103" s="7" t="s">
+      <c r="E107" s="7" t="s">
         <v>94</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="69">
+  <mergeCells count="73">
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="B96:B98"/>
+    <mergeCell ref="C96:C98"/>
+    <mergeCell ref="B99:B102"/>
+    <mergeCell ref="C99:C102"/>
+    <mergeCell ref="B103:B106"/>
+    <mergeCell ref="C103:C106"/>
+    <mergeCell ref="B86:B88"/>
+    <mergeCell ref="C86:C88"/>
+    <mergeCell ref="B89:B91"/>
+    <mergeCell ref="C89:C91"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="C60:C63"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="C21:C24"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="C11:C12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C56:C59"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="B66:B68"/>
-    <mergeCell ref="C66:C68"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="B82:B84"/>
-    <mergeCell ref="C82:C84"/>
-    <mergeCell ref="B85:B87"/>
-    <mergeCell ref="C85:C87"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:C90"/>
-    <mergeCell ref="B92:B94"/>
-    <mergeCell ref="C92:C94"/>
-    <mergeCell ref="B95:B98"/>
-    <mergeCell ref="C95:C98"/>
-    <mergeCell ref="B99:B102"/>
-    <mergeCell ref="C99:C102"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="B56:B59"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>

--- a/== MATERIAL/(FyQ) - Estandares de aprendizaje.xlsx
+++ b/== MATERIAL/(FyQ) - Estandares de aprendizaje.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="289">
   <si>
     <t>REF</t>
   </si>
@@ -1453,7 +1453,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1608,50 +1608,155 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
@@ -1668,100 +1773,10 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2053,10 +2068,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E107"/>
+  <dimension ref="B1:E109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82:E82"/>
+    <sheetView tabSelected="1" topLeftCell="A102" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E109" sqref="E109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.109375" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -2075,22 +2090,22 @@
       <c r="D1" s="6"/>
     </row>
     <row r="2" spans="2:5" s="4" customFormat="1" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="75" t="s">
         <v>282</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="78"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77"/>
     </row>
     <row r="3" spans="2:5" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="78" t="s">
         <v>286</v>
       </c>
-      <c r="C3" s="81"/>
+      <c r="C3" s="79"/>
       <c r="D3" s="82" t="s">
         <v>287</v>
       </c>
-      <c r="E3" s="83"/>
+      <c r="E3" s="81"/>
     </row>
     <row r="4" spans="2:5" s="9" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="34" t="s">
@@ -2107,10 +2122,10 @@
       </c>
     </row>
     <row r="5" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="91" t="s">
         <v>188</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="94" t="s">
         <v>235</v>
       </c>
       <c r="D5" s="18" t="s">
@@ -2121,8 +2136,8 @@
       </c>
     </row>
     <row r="6" spans="2:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="53"/>
-      <c r="C6" s="55"/>
+      <c r="B6" s="89"/>
+      <c r="C6" s="90"/>
       <c r="D6" s="19" t="s">
         <v>96</v>
       </c>
@@ -2159,10 +2174,10 @@
       </c>
     </row>
     <row r="9" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="83" t="s">
         <v>191</v>
       </c>
-      <c r="C9" s="58" t="s">
+      <c r="C9" s="85" t="s">
         <v>238</v>
       </c>
       <c r="D9" s="30" t="s">
@@ -2173,8 +2188,8 @@
       </c>
     </row>
     <row r="10" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="57"/>
-      <c r="C10" s="59"/>
+      <c r="B10" s="84"/>
+      <c r="C10" s="86"/>
       <c r="D10" s="32" t="s">
         <v>100</v>
       </c>
@@ -2183,10 +2198,10 @@
       </c>
     </row>
     <row r="11" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="60" t="s">
+      <c r="B11" s="98" t="s">
         <v>192</v>
       </c>
-      <c r="C11" s="62" t="s">
+      <c r="C11" s="100" t="s">
         <v>239</v>
       </c>
       <c r="D11" s="30" t="s">
@@ -2197,8 +2212,8 @@
       </c>
     </row>
     <row r="12" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="61"/>
-      <c r="C12" s="63"/>
+      <c r="B12" s="97"/>
+      <c r="C12" s="99"/>
       <c r="D12" s="32" t="s">
         <v>102</v>
       </c>
@@ -2207,10 +2222,10 @@
       </c>
     </row>
     <row r="13" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="64" t="s">
+      <c r="B13" s="92" t="s">
         <v>193</v>
       </c>
-      <c r="C13" s="66" t="s">
+      <c r="C13" s="93" t="s">
         <v>240</v>
       </c>
       <c r="D13" s="20" t="s">
@@ -2221,8 +2236,8 @@
       </c>
     </row>
     <row r="14" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="65"/>
-      <c r="C14" s="67"/>
+      <c r="B14" s="101"/>
+      <c r="C14" s="102"/>
       <c r="D14" s="19" t="s">
         <v>104</v>
       </c>
@@ -2231,22 +2246,22 @@
       </c>
     </row>
     <row r="15" spans="2:5" s="4" customFormat="1" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="76" t="s">
+      <c r="B15" s="75" t="s">
         <v>288</v>
       </c>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="78"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="77"/>
     </row>
     <row r="16" spans="2:5" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="80" t="s">
+      <c r="B16" s="78" t="s">
         <v>286</v>
       </c>
-      <c r="C16" s="81"/>
-      <c r="D16" s="84" t="s">
+      <c r="C16" s="79"/>
+      <c r="D16" s="80" t="s">
         <v>287</v>
       </c>
-      <c r="E16" s="83"/>
+      <c r="E16" s="81"/>
     </row>
     <row r="17" spans="2:5" s="9" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="34" t="s">
@@ -2263,10 +2278,10 @@
       </c>
     </row>
     <row r="18" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="68" t="s">
+      <c r="B18" s="103" t="s">
         <v>194</v>
       </c>
-      <c r="C18" s="70" t="s">
+      <c r="C18" s="105" t="s">
         <v>241</v>
       </c>
       <c r="D18" s="41" t="s">
@@ -2277,8 +2292,8 @@
       </c>
     </row>
     <row r="19" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="69"/>
-      <c r="C19" s="71"/>
+      <c r="B19" s="104"/>
+      <c r="C19" s="106"/>
       <c r="D19" s="38" t="s">
         <v>106</v>
       </c>
@@ -2287,8 +2302,8 @@
       </c>
     </row>
     <row r="20" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="60"/>
-      <c r="C20" s="62"/>
+      <c r="B20" s="98"/>
+      <c r="C20" s="100"/>
       <c r="D20" s="42" t="s">
         <v>107</v>
       </c>
@@ -2297,10 +2312,10 @@
       </c>
     </row>
     <row r="21" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="72" t="s">
+      <c r="B21" s="95" t="s">
         <v>195</v>
       </c>
-      <c r="C21" s="73" t="s">
+      <c r="C21" s="96" t="s">
         <v>242</v>
       </c>
       <c r="D21" s="48" t="s">
@@ -2311,8 +2326,8 @@
       </c>
     </row>
     <row r="22" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="72"/>
-      <c r="C22" s="73"/>
+      <c r="B22" s="95"/>
+      <c r="C22" s="96"/>
       <c r="D22" s="42" t="s">
         <v>109</v>
       </c>
@@ -2321,8 +2336,8 @@
       </c>
     </row>
     <row r="23" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="72"/>
-      <c r="C23" s="73"/>
+      <c r="B23" s="95"/>
+      <c r="C23" s="96"/>
       <c r="D23" s="38" t="s">
         <v>110</v>
       </c>
@@ -2331,8 +2346,8 @@
       </c>
     </row>
     <row r="24" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="72"/>
-      <c r="C24" s="73"/>
+      <c r="B24" s="95"/>
+      <c r="C24" s="96"/>
       <c r="D24" s="43" t="s">
         <v>111</v>
       </c>
@@ -2341,10 +2356,10 @@
       </c>
     </row>
     <row r="25" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="61" t="s">
+      <c r="B25" s="97" t="s">
         <v>196</v>
       </c>
-      <c r="C25" s="63" t="s">
+      <c r="C25" s="99" t="s">
         <v>243</v>
       </c>
       <c r="D25" s="38" t="s">
@@ -2355,8 +2370,8 @@
       </c>
     </row>
     <row r="26" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="60"/>
-      <c r="C26" s="62"/>
+      <c r="B26" s="98"/>
+      <c r="C26" s="100"/>
       <c r="D26" s="42" t="s">
         <v>113</v>
       </c>
@@ -2365,10 +2380,10 @@
       </c>
     </row>
     <row r="27" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="72" t="s">
+      <c r="B27" s="95" t="s">
         <v>197</v>
       </c>
-      <c r="C27" s="73" t="s">
+      <c r="C27" s="96" t="s">
         <v>244</v>
       </c>
       <c r="D27" s="48" t="s">
@@ -2379,8 +2394,8 @@
       </c>
     </row>
     <row r="28" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="72"/>
-      <c r="C28" s="73"/>
+      <c r="B28" s="95"/>
+      <c r="C28" s="96"/>
       <c r="D28" s="42" t="s">
         <v>115</v>
       </c>
@@ -2389,8 +2404,8 @@
       </c>
     </row>
     <row r="29" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="72"/>
-      <c r="C29" s="73"/>
+      <c r="B29" s="95"/>
+      <c r="C29" s="96"/>
       <c r="D29" s="45" t="s">
         <v>116</v>
       </c>
@@ -2413,10 +2428,10 @@
       </c>
     </row>
     <row r="31" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="72" t="s">
+      <c r="B31" s="95" t="s">
         <v>199</v>
       </c>
-      <c r="C31" s="73" t="s">
+      <c r="C31" s="96" t="s">
         <v>246</v>
       </c>
       <c r="D31" s="48" t="s">
@@ -2427,8 +2442,8 @@
       </c>
     </row>
     <row r="32" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="72"/>
-      <c r="C32" s="73"/>
+      <c r="B32" s="95"/>
+      <c r="C32" s="96"/>
       <c r="D32" s="42" t="s">
         <v>119</v>
       </c>
@@ -2437,8 +2452,8 @@
       </c>
     </row>
     <row r="33" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="72"/>
-      <c r="C33" s="73"/>
+      <c r="B33" s="95"/>
+      <c r="C33" s="96"/>
       <c r="D33" s="45" t="s">
         <v>120</v>
       </c>
@@ -2461,10 +2476,10 @@
       </c>
     </row>
     <row r="35" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="72" t="s">
+      <c r="B35" s="95" t="s">
         <v>201</v>
       </c>
-      <c r="C35" s="73" t="s">
+      <c r="C35" s="96" t="s">
         <v>248</v>
       </c>
       <c r="D35" s="48" t="s">
@@ -2475,8 +2490,8 @@
       </c>
     </row>
     <row r="36" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="72"/>
-      <c r="C36" s="73"/>
+      <c r="B36" s="95"/>
+      <c r="C36" s="96"/>
       <c r="D36" s="43" t="s">
         <v>123</v>
       </c>
@@ -2485,10 +2500,10 @@
       </c>
     </row>
     <row r="37" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="61" t="s">
+      <c r="B37" s="97" t="s">
         <v>202</v>
       </c>
-      <c r="C37" s="63" t="s">
+      <c r="C37" s="99" t="s">
         <v>249</v>
       </c>
       <c r="D37" s="38" t="s">
@@ -2499,8 +2514,8 @@
       </c>
     </row>
     <row r="38" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="60"/>
-      <c r="C38" s="62"/>
+      <c r="B38" s="98"/>
+      <c r="C38" s="100"/>
       <c r="D38" s="42" t="s">
         <v>125</v>
       </c>
@@ -2509,10 +2524,10 @@
       </c>
     </row>
     <row r="39" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="72" t="s">
+      <c r="B39" s="95" t="s">
         <v>203</v>
       </c>
-      <c r="C39" s="73" t="s">
+      <c r="C39" s="96" t="s">
         <v>250</v>
       </c>
       <c r="D39" s="48" t="s">
@@ -2523,8 +2538,8 @@
       </c>
     </row>
     <row r="40" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="72"/>
-      <c r="C40" s="73"/>
+      <c r="B40" s="95"/>
+      <c r="C40" s="96"/>
       <c r="D40" s="43" t="s">
         <v>127</v>
       </c>
@@ -2547,22 +2562,22 @@
       </c>
     </row>
     <row r="42" spans="2:5" s="4" customFormat="1" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="76" t="s">
+      <c r="B42" s="75" t="s">
         <v>283</v>
       </c>
-      <c r="C42" s="77"/>
-      <c r="D42" s="77"/>
-      <c r="E42" s="78"/>
+      <c r="C42" s="76"/>
+      <c r="D42" s="76"/>
+      <c r="E42" s="77"/>
     </row>
     <row r="43" spans="2:5" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="80" t="s">
+      <c r="B43" s="78" t="s">
         <v>286</v>
       </c>
-      <c r="C43" s="81"/>
-      <c r="D43" s="84" t="s">
+      <c r="C43" s="79"/>
+      <c r="D43" s="80" t="s">
         <v>287</v>
       </c>
-      <c r="E43" s="83"/>
+      <c r="E43" s="81"/>
     </row>
     <row r="44" spans="2:5" s="9" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B44" s="34" t="s">
@@ -2579,13 +2594,13 @@
       </c>
     </row>
     <row r="45" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="52" t="s">
+      <c r="B45" s="91" t="s">
         <v>205</v>
       </c>
-      <c r="C45" s="54" t="s">
+      <c r="C45" s="94" t="s">
         <v>252</v>
       </c>
-      <c r="D45" s="87" t="s">
+      <c r="D45" s="58" t="s">
         <v>129</v>
       </c>
       <c r="E45" s="14" t="s">
@@ -2593,12 +2608,12 @@
       </c>
     </row>
     <row r="46" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="85"/>
-      <c r="C46" s="86"/>
-      <c r="D46" s="88" t="s">
+      <c r="B46" s="87"/>
+      <c r="C46" s="88"/>
+      <c r="D46" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="E46" s="89" t="s">
+      <c r="E46" s="60" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2609,10 +2624,10 @@
       <c r="C47" s="51" t="s">
         <v>253</v>
       </c>
-      <c r="D47" s="92" t="s">
+      <c r="D47" s="63" t="s">
         <v>131</v>
       </c>
-      <c r="E47" s="93" t="s">
+      <c r="E47" s="64" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2623,10 +2638,10 @@
       <c r="C48" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="D48" s="88" t="s">
+      <c r="D48" s="59" t="s">
         <v>132</v>
       </c>
-      <c r="E48" s="89" t="s">
+      <c r="E48" s="60" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2637,31 +2652,31 @@
       <c r="C49" s="51" t="s">
         <v>255</v>
       </c>
-      <c r="D49" s="92" t="s">
+      <c r="D49" s="63" t="s">
         <v>133</v>
       </c>
-      <c r="E49" s="93" t="s">
+      <c r="E49" s="64" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="50" spans="2:5" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="85" t="s">
+      <c r="B50" s="87" t="s">
         <v>209</v>
       </c>
-      <c r="C50" s="86" t="s">
+      <c r="C50" s="88" t="s">
         <v>256</v>
       </c>
-      <c r="D50" s="88" t="s">
+      <c r="D50" s="59" t="s">
         <v>134</v>
       </c>
-      <c r="E50" s="89" t="s">
+      <c r="E50" s="60" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="51" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="85"/>
-      <c r="C51" s="86"/>
-      <c r="D51" s="90" t="s">
+      <c r="B51" s="87"/>
+      <c r="C51" s="88"/>
+      <c r="D51" s="61" t="s">
         <v>135</v>
       </c>
       <c r="E51" s="16" t="s">
@@ -2669,47 +2684,47 @@
       </c>
     </row>
     <row r="52" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="56" t="s">
+      <c r="B52" s="83" t="s">
         <v>210</v>
       </c>
-      <c r="C52" s="58" t="s">
+      <c r="C52" s="85" t="s">
         <v>257</v>
       </c>
-      <c r="D52" s="94" t="s">
+      <c r="D52" s="65" t="s">
         <v>136</v>
       </c>
-      <c r="E52" s="95" t="s">
+      <c r="E52" s="66" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="53" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="57"/>
-      <c r="C53" s="59"/>
-      <c r="D53" s="96" t="s">
+      <c r="B53" s="84"/>
+      <c r="C53" s="86"/>
+      <c r="D53" s="67" t="s">
         <v>137</v>
       </c>
-      <c r="E53" s="97" t="s">
+      <c r="E53" s="68" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="54" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="85" t="s">
+      <c r="B54" s="87" t="s">
         <v>211</v>
       </c>
-      <c r="C54" s="86" t="s">
+      <c r="C54" s="88" t="s">
         <v>258</v>
       </c>
-      <c r="D54" s="88" t="s">
+      <c r="D54" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="E54" s="89" t="s">
+      <c r="E54" s="60" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="55" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="85"/>
-      <c r="C55" s="86"/>
-      <c r="D55" s="90" t="s">
+      <c r="B55" s="87"/>
+      <c r="C55" s="88"/>
+      <c r="D55" s="61" t="s">
         <v>139</v>
       </c>
       <c r="E55" s="16" t="s">
@@ -2717,9 +2732,9 @@
       </c>
     </row>
     <row r="56" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="53"/>
-      <c r="C56" s="55"/>
-      <c r="D56" s="91" t="s">
+      <c r="B56" s="89"/>
+      <c r="C56" s="90"/>
+      <c r="D56" s="62" t="s">
         <v>140</v>
       </c>
       <c r="E56" s="15" t="s">
@@ -2727,22 +2742,22 @@
       </c>
     </row>
     <row r="57" spans="2:5" s="4" customFormat="1" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="76" t="s">
+      <c r="B57" s="75" t="s">
         <v>284</v>
       </c>
-      <c r="C57" s="77"/>
-      <c r="D57" s="77"/>
-      <c r="E57" s="78"/>
+      <c r="C57" s="76"/>
+      <c r="D57" s="76"/>
+      <c r="E57" s="77"/>
     </row>
     <row r="58" spans="2:5" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="80" t="s">
+      <c r="B58" s="78" t="s">
         <v>286</v>
       </c>
-      <c r="C58" s="81"/>
-      <c r="D58" s="84" t="s">
+      <c r="C58" s="79"/>
+      <c r="D58" s="80" t="s">
         <v>287</v>
       </c>
-      <c r="E58" s="83"/>
+      <c r="E58" s="81"/>
     </row>
     <row r="59" spans="2:5" s="9" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B59" s="34" t="s">
@@ -2759,13 +2774,13 @@
       </c>
     </row>
     <row r="60" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="52" t="s">
+      <c r="B60" s="91" t="s">
         <v>212</v>
       </c>
-      <c r="C60" s="54" t="s">
+      <c r="C60" s="94" t="s">
         <v>259</v>
       </c>
-      <c r="D60" s="87" t="s">
+      <c r="D60" s="58" t="s">
         <v>141</v>
       </c>
       <c r="E60" s="14" t="s">
@@ -2773,19 +2788,19 @@
       </c>
     </row>
     <row r="61" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="85"/>
-      <c r="C61" s="86"/>
-      <c r="D61" s="88" t="s">
+      <c r="B61" s="87"/>
+      <c r="C61" s="88"/>
+      <c r="D61" s="59" t="s">
         <v>142</v>
       </c>
-      <c r="E61" s="89" t="s">
+      <c r="E61" s="60" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="62" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="85"/>
-      <c r="C62" s="86"/>
-      <c r="D62" s="90" t="s">
+      <c r="B62" s="87"/>
+      <c r="C62" s="88"/>
+      <c r="D62" s="61" t="s">
         <v>143</v>
       </c>
       <c r="E62" s="16" t="s">
@@ -2793,23 +2808,23 @@
       </c>
     </row>
     <row r="63" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="85"/>
-      <c r="C63" s="86"/>
-      <c r="D63" s="88" t="s">
+      <c r="B63" s="87"/>
+      <c r="C63" s="88"/>
+      <c r="D63" s="59" t="s">
         <v>144</v>
       </c>
-      <c r="E63" s="89" t="s">
+      <c r="E63" s="60" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="64" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="56" t="s">
+      <c r="B64" s="83" t="s">
         <v>213</v>
       </c>
-      <c r="C64" s="58" t="s">
+      <c r="C64" s="85" t="s">
         <v>260</v>
       </c>
-      <c r="D64" s="98" t="s">
+      <c r="D64" s="69" t="s">
         <v>145</v>
       </c>
       <c r="E64" s="31" t="s">
@@ -2817,9 +2832,9 @@
       </c>
     </row>
     <row r="65" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="57"/>
-      <c r="C65" s="59"/>
-      <c r="D65" s="99" t="s">
+      <c r="B65" s="84"/>
+      <c r="C65" s="86"/>
+      <c r="D65" s="70" t="s">
         <v>146</v>
       </c>
       <c r="E65" s="33" t="s">
@@ -2827,13 +2842,13 @@
       </c>
     </row>
     <row r="66" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="85" t="s">
+      <c r="B66" s="87" t="s">
         <v>214</v>
       </c>
-      <c r="C66" s="86" t="s">
+      <c r="C66" s="88" t="s">
         <v>261</v>
       </c>
-      <c r="D66" s="90" t="s">
+      <c r="D66" s="61" t="s">
         <v>147</v>
       </c>
       <c r="E66" s="16" t="s">
@@ -2841,12 +2856,12 @@
       </c>
     </row>
     <row r="67" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="85"/>
-      <c r="C67" s="86"/>
-      <c r="D67" s="88" t="s">
+      <c r="B67" s="87"/>
+      <c r="C67" s="88"/>
+      <c r="D67" s="59" t="s">
         <v>148</v>
       </c>
-      <c r="E67" s="89" t="s">
+      <c r="E67" s="60" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2857,10 +2872,10 @@
       <c r="C68" s="51" t="s">
         <v>262</v>
       </c>
-      <c r="D68" s="92" t="s">
+      <c r="D68" s="63" t="s">
         <v>149</v>
       </c>
-      <c r="E68" s="93" t="s">
+      <c r="E68" s="64" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2871,21 +2886,21 @@
       <c r="C69" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="D69" s="88" t="s">
+      <c r="D69" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="E69" s="89" t="s">
+      <c r="E69" s="60" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="70" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="56" t="s">
+      <c r="B70" s="83" t="s">
         <v>217</v>
       </c>
-      <c r="C70" s="58" t="s">
+      <c r="C70" s="85" t="s">
         <v>264</v>
       </c>
-      <c r="D70" s="98" t="s">
+      <c r="D70" s="69" t="s">
         <v>151</v>
       </c>
       <c r="E70" s="31" t="s">
@@ -2893,22 +2908,22 @@
       </c>
     </row>
     <row r="71" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="64"/>
-      <c r="C71" s="66"/>
-      <c r="D71" s="88" t="s">
+      <c r="B71" s="92"/>
+      <c r="C71" s="93"/>
+      <c r="D71" s="59" t="s">
         <v>152</v>
       </c>
-      <c r="E71" s="89" t="s">
+      <c r="E71" s="60" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="72" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="57"/>
-      <c r="C72" s="59"/>
-      <c r="D72" s="96" t="s">
+      <c r="B72" s="84"/>
+      <c r="C72" s="86"/>
+      <c r="D72" s="67" t="s">
         <v>153</v>
       </c>
-      <c r="E72" s="97" t="s">
+      <c r="E72" s="68" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2919,21 +2934,21 @@
       <c r="C73" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="D73" s="88" t="s">
+      <c r="D73" s="59" t="s">
         <v>154</v>
       </c>
-      <c r="E73" s="89" t="s">
+      <c r="E73" s="60" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="74" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="56" t="s">
+      <c r="B74" s="83" t="s">
         <v>219</v>
       </c>
-      <c r="C74" s="58" t="s">
+      <c r="C74" s="85" t="s">
         <v>266</v>
       </c>
-      <c r="D74" s="98" t="s">
+      <c r="D74" s="69" t="s">
         <v>155</v>
       </c>
       <c r="E74" s="31" t="s">
@@ -2941,9 +2956,9 @@
       </c>
     </row>
     <row r="75" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="57"/>
-      <c r="C75" s="59"/>
-      <c r="D75" s="99" t="s">
+      <c r="B75" s="84"/>
+      <c r="C75" s="86"/>
+      <c r="D75" s="70" t="s">
         <v>156</v>
       </c>
       <c r="E75" s="33" t="s">
@@ -2957,7 +2972,7 @@
       <c r="C76" s="21" t="s">
         <v>267</v>
       </c>
-      <c r="D76" s="90" t="s">
+      <c r="D76" s="61" t="s">
         <v>157</v>
       </c>
       <c r="E76" s="16" t="s">
@@ -2965,47 +2980,47 @@
       </c>
     </row>
     <row r="77" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="56" t="s">
+      <c r="B77" s="83" t="s">
         <v>221</v>
       </c>
-      <c r="C77" s="58" t="s">
+      <c r="C77" s="85" t="s">
         <v>268</v>
       </c>
-      <c r="D77" s="94" t="s">
+      <c r="D77" s="65" t="s">
         <v>158</v>
       </c>
-      <c r="E77" s="95" t="s">
+      <c r="E77" s="66" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="78" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="57"/>
-      <c r="C78" s="59"/>
-      <c r="D78" s="96" t="s">
+      <c r="B78" s="84"/>
+      <c r="C78" s="86"/>
+      <c r="D78" s="67" t="s">
         <v>159</v>
       </c>
-      <c r="E78" s="97" t="s">
+      <c r="E78" s="68" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="79" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="85" t="s">
+      <c r="B79" s="87" t="s">
         <v>222</v>
       </c>
-      <c r="C79" s="86" t="s">
+      <c r="C79" s="88" t="s">
         <v>269</v>
       </c>
-      <c r="D79" s="88" t="s">
+      <c r="D79" s="59" t="s">
         <v>160</v>
       </c>
-      <c r="E79" s="89" t="s">
+      <c r="E79" s="60" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="80" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="85"/>
-      <c r="C80" s="86"/>
-      <c r="D80" s="90" t="s">
+      <c r="B80" s="87"/>
+      <c r="C80" s="88"/>
+      <c r="D80" s="61" t="s">
         <v>161</v>
       </c>
       <c r="E80" s="16" t="s">
@@ -3013,331 +3028,402 @@
       </c>
     </row>
     <row r="81" spans="2:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="100" t="s">
+      <c r="B81" s="71" t="s">
         <v>223</v>
       </c>
-      <c r="C81" s="101" t="s">
+      <c r="C81" s="72" t="s">
         <v>270</v>
       </c>
-      <c r="D81" s="102" t="s">
+      <c r="D81" s="73" t="s">
         <v>162</v>
       </c>
-      <c r="E81" s="103" t="s">
+      <c r="E81" s="74" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="82" spans="2:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="79" t="s">
+    <row r="82" spans="2:5" s="4" customFormat="1" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B82" s="75" t="s">
         <v>285</v>
       </c>
-      <c r="C82" s="79"/>
-      <c r="D82" s="79"/>
-      <c r="E82" s="79"/>
-    </row>
-    <row r="83" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="75" t="s">
+      <c r="C82" s="76"/>
+      <c r="D82" s="76"/>
+      <c r="E82" s="77"/>
+    </row>
+    <row r="83" spans="2:5" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="78" t="s">
+        <v>286</v>
+      </c>
+      <c r="C83" s="79"/>
+      <c r="D83" s="80" t="s">
+        <v>287</v>
+      </c>
+      <c r="E83" s="81"/>
+    </row>
+    <row r="84" spans="2:5" s="9" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B84" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C84" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D84" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="E84" s="37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="91" t="s">
         <v>224</v>
       </c>
-      <c r="C83" s="74" t="s">
+      <c r="C85" s="94" t="s">
         <v>271</v>
       </c>
-      <c r="D83" s="5" t="s">
+      <c r="D85" s="58" t="s">
         <v>163</v>
       </c>
-      <c r="E83" s="7" t="s">
+      <c r="E85" s="14" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="84" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="75"/>
-      <c r="C84" s="74"/>
-      <c r="D84" s="5" t="s">
+    <row r="86" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="87"/>
+      <c r="C86" s="88"/>
+      <c r="D86" s="59" t="s">
         <v>164</v>
       </c>
-      <c r="E84" s="7" t="s">
+      <c r="E86" s="60" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="85" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="5" t="s">
+    <row r="87" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="54" t="s">
         <v>225</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C87" s="55" t="s">
         <v>272</v>
       </c>
-      <c r="D85" s="5" t="s">
+      <c r="D87" s="63" t="s">
         <v>165</v>
       </c>
-      <c r="E85" s="7" t="s">
+      <c r="E87" s="64" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="86" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="75" t="s">
+    <row r="88" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="87" t="s">
         <v>226</v>
       </c>
-      <c r="C86" s="74" t="s">
+      <c r="C88" s="88" t="s">
         <v>273</v>
       </c>
-      <c r="D86" s="5" t="s">
+      <c r="D88" s="59" t="s">
         <v>166</v>
       </c>
-      <c r="E86" s="7" t="s">
+      <c r="E88" s="60" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="87" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="75"/>
-      <c r="C87" s="74"/>
-      <c r="D87" s="5" t="s">
+    <row r="89" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="87"/>
+      <c r="C89" s="88"/>
+      <c r="D89" s="61" t="s">
         <v>167</v>
       </c>
-      <c r="E87" s="7" t="s">
+      <c r="E89" s="16" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="88" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="75"/>
-      <c r="C88" s="74"/>
-      <c r="D88" s="5" t="s">
+    <row r="90" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="87"/>
+      <c r="C90" s="88"/>
+      <c r="D90" s="59" t="s">
         <v>168</v>
       </c>
-      <c r="E88" s="7" t="s">
+      <c r="E90" s="60" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="89" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="75" t="s">
+    <row r="91" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="83" t="s">
         <v>227</v>
       </c>
-      <c r="C89" s="74" t="s">
+      <c r="C91" s="85" t="s">
         <v>274</v>
       </c>
-      <c r="D89" s="5" t="s">
+      <c r="D91" s="69" t="s">
         <v>169</v>
       </c>
-      <c r="E89" s="7" t="s">
+      <c r="E91" s="31" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="90" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="75"/>
-      <c r="C90" s="74"/>
-      <c r="D90" s="5" t="s">
+    <row r="92" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="92"/>
+      <c r="C92" s="93"/>
+      <c r="D92" s="59" t="s">
         <v>170</v>
       </c>
-      <c r="E90" s="7" t="s">
+      <c r="E92" s="60" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="91" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="75"/>
-      <c r="C91" s="74"/>
-      <c r="D91" s="5" t="s">
+    <row r="93" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="84"/>
+      <c r="C93" s="86"/>
+      <c r="D93" s="67" t="s">
         <v>171</v>
       </c>
-      <c r="E91" s="7" t="s">
+      <c r="E93" s="68" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="92" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="5" t="s">
+    <row r="94" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="56" t="s">
         <v>228</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C94" s="57" t="s">
         <v>275</v>
       </c>
-      <c r="D92" s="5" t="s">
+      <c r="D94" s="59" t="s">
         <v>172</v>
       </c>
-      <c r="E92" s="7" t="s">
+      <c r="E94" s="60" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="93" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="75" t="s">
+    <row r="95" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="83" t="s">
         <v>229</v>
       </c>
-      <c r="C93" s="74" t="s">
+      <c r="C95" s="85" t="s">
         <v>276</v>
       </c>
-      <c r="D93" s="5" t="s">
+      <c r="D95" s="69" t="s">
         <v>173</v>
       </c>
-      <c r="E93" s="7" t="s">
+      <c r="E95" s="31" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="94" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="75"/>
-      <c r="C94" s="74"/>
-      <c r="D94" s="5" t="s">
+    <row r="96" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="84"/>
+      <c r="C96" s="86"/>
+      <c r="D96" s="70" t="s">
         <v>174</v>
       </c>
-      <c r="E94" s="7" t="s">
+      <c r="E96" s="33" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="95" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="5" t="s">
+    <row r="97" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="56" t="s">
         <v>230</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="C97" s="57" t="s">
         <v>277</v>
       </c>
-      <c r="D95" s="5" t="s">
+      <c r="D97" s="61" t="s">
         <v>175</v>
       </c>
-      <c r="E95" s="7" t="s">
+      <c r="E97" s="16" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="96" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="75" t="s">
+    <row r="98" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="83" t="s">
         <v>231</v>
       </c>
-      <c r="C96" s="74" t="s">
+      <c r="C98" s="85" t="s">
         <v>278</v>
       </c>
-      <c r="D96" s="5" t="s">
+      <c r="D98" s="65" t="s">
         <v>176</v>
       </c>
-      <c r="E96" s="7" t="s">
+      <c r="E98" s="66" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="97" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="75"/>
-      <c r="C97" s="74"/>
-      <c r="D97" s="5" t="s">
+    <row r="99" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B99" s="92"/>
+      <c r="C99" s="93"/>
+      <c r="D99" s="61" t="s">
         <v>177</v>
       </c>
-      <c r="E97" s="7" t="s">
+      <c r="E99" s="16" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="98" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="75"/>
-      <c r="C98" s="74"/>
-      <c r="D98" s="5" t="s">
+    <row r="100" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="84"/>
+      <c r="C100" s="86"/>
+      <c r="D100" s="70" t="s">
         <v>178</v>
       </c>
-      <c r="E98" s="7" t="s">
+      <c r="E100" s="33" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="99" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="75" t="s">
+    <row r="101" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="87" t="s">
         <v>232</v>
       </c>
-      <c r="C99" s="74" t="s">
+      <c r="C101" s="88" t="s">
         <v>279</v>
       </c>
-      <c r="D99" s="5" t="s">
+      <c r="D101" s="61" t="s">
         <v>179</v>
       </c>
-      <c r="E99" s="7" t="s">
+      <c r="E101" s="16" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="100" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="75"/>
-      <c r="C100" s="74"/>
-      <c r="D100" s="5" t="s">
+    <row r="102" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B102" s="87"/>
+      <c r="C102" s="88"/>
+      <c r="D102" s="59" t="s">
         <v>180</v>
       </c>
-      <c r="E100" s="7" t="s">
+      <c r="E102" s="60" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="101" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="75"/>
-      <c r="C101" s="74"/>
-      <c r="D101" s="5" t="s">
+    <row r="103" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B103" s="87"/>
+      <c r="C103" s="88"/>
+      <c r="D103" s="61" t="s">
         <v>181</v>
       </c>
-      <c r="E101" s="7" t="s">
+      <c r="E103" s="16" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="102" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="75"/>
-      <c r="C102" s="74"/>
-      <c r="D102" s="5" t="s">
+    <row r="104" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B104" s="87"/>
+      <c r="C104" s="88"/>
+      <c r="D104" s="59" t="s">
         <v>182</v>
       </c>
-      <c r="E102" s="7" t="s">
+      <c r="E104" s="60" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="103" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="75" t="s">
+    <row r="105" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B105" s="83" t="s">
         <v>233</v>
       </c>
-      <c r="C103" s="74" t="s">
+      <c r="C105" s="85" t="s">
         <v>280</v>
       </c>
-      <c r="D103" s="5" t="s">
+      <c r="D105" s="69" t="s">
         <v>183</v>
       </c>
-      <c r="E103" s="7" t="s">
+      <c r="E105" s="31" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="104" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="75"/>
-      <c r="C104" s="74"/>
-      <c r="D104" s="5" t="s">
+    <row r="106" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B106" s="92"/>
+      <c r="C106" s="93"/>
+      <c r="D106" s="59" t="s">
         <v>184</v>
       </c>
-      <c r="E104" s="7" t="s">
+      <c r="E106" s="60" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="105" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="75"/>
-      <c r="C105" s="74"/>
-      <c r="D105" s="5" t="s">
+    <row r="107" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B107" s="92"/>
+      <c r="C107" s="93"/>
+      <c r="D107" s="61" t="s">
         <v>185</v>
       </c>
-      <c r="E105" s="7" t="s">
+      <c r="E107" s="16" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="106" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="75"/>
-      <c r="C106" s="74"/>
-      <c r="D106" s="5" t="s">
+    <row r="108" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B108" s="84"/>
+      <c r="C108" s="86"/>
+      <c r="D108" s="70" t="s">
         <v>186</v>
       </c>
-      <c r="E106" s="7" t="s">
+      <c r="E108" s="33" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="107" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B107" s="5" t="s">
+    <row r="109" spans="2:5" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B109" s="52" t="s">
         <v>234</v>
       </c>
-      <c r="C107" s="2" t="s">
+      <c r="C109" s="53" t="s">
         <v>281</v>
       </c>
-      <c r="D107" s="5" t="s">
+      <c r="D109" s="107" t="s">
         <v>187</v>
       </c>
-      <c r="E107" s="7" t="s">
+      <c r="E109" s="108" t="s">
         <v>94</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="73">
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:E58"/>
+  <mergeCells count="75">
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="C85:C86"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="B88:B90"/>
+    <mergeCell ref="C88:C90"/>
+    <mergeCell ref="B91:B93"/>
+    <mergeCell ref="C91:C93"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="C98:C100"/>
+    <mergeCell ref="B101:B104"/>
+    <mergeCell ref="C101:C104"/>
+    <mergeCell ref="B105:B108"/>
+    <mergeCell ref="C105:C108"/>
     <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B82:E82"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="B15:E15"/>
@@ -3350,59 +3436,14 @@
     <mergeCell ref="B54:B56"/>
     <mergeCell ref="C54:C56"/>
     <mergeCell ref="B60:B63"/>
-    <mergeCell ref="B96:B98"/>
-    <mergeCell ref="C96:C98"/>
-    <mergeCell ref="B99:B102"/>
-    <mergeCell ref="C99:C102"/>
-    <mergeCell ref="B103:B106"/>
-    <mergeCell ref="C103:C106"/>
-    <mergeCell ref="B86:B88"/>
-    <mergeCell ref="C86:C88"/>
-    <mergeCell ref="B89:B91"/>
-    <mergeCell ref="C89:C91"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:C94"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="C70:C72"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="C74:C75"/>
     <mergeCell ref="C60:C63"/>
     <mergeCell ref="B64:B65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="C27:C29"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
